--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,25 +8,807 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70795F15-E638-41EF-ACF2-7CC779F6B0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83684057-86F7-4253-A244-D8432EBA660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="39930" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39570" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="P2P IP Addressing" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="255">
+  <si>
+    <t>Device Name</t>
+  </si>
+  <si>
+    <t>Connected Device Name</t>
+  </si>
+  <si>
+    <t>Channel Group #</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Dec. Mask</t>
+  </si>
+  <si>
+    <t>Assignable Range</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Access_SW1</t>
+  </si>
+  <si>
+    <t>DIST_SW1</t>
+  </si>
+  <si>
+    <t>Port(s)</t>
+  </si>
+  <si>
+    <t>F0/7-9</t>
+  </si>
+  <si>
+    <t>G1/0/7-9</t>
+  </si>
+  <si>
+    <t>Channel Group 1</t>
+  </si>
+  <si>
+    <t>F0/12-14</t>
+  </si>
+  <si>
+    <t>DIST_SW2</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>10.7.0.1</t>
+  </si>
+  <si>
+    <t>10.7.0.2</t>
+  </si>
+  <si>
+    <t>10.7.0.0</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>10.7.0.1 - 10.7.0.2</t>
+  </si>
+  <si>
+    <t>10.7.0.3</t>
+  </si>
+  <si>
+    <t>Access_SW2</t>
+  </si>
+  <si>
+    <t>Access_SW3</t>
+  </si>
+  <si>
+    <t>CORE_1</t>
+  </si>
+  <si>
+    <t>CORE_2</t>
+  </si>
+  <si>
+    <t>DIST_1</t>
+  </si>
+  <si>
+    <t>DIST_2</t>
+  </si>
+  <si>
+    <t>WAN_R1</t>
+  </si>
+  <si>
+    <t>WAN_R2</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>G1/1/1-2</t>
+  </si>
+  <si>
+    <t>P2P</t>
+  </si>
+  <si>
+    <t>10.7.0.4</t>
+  </si>
+  <si>
+    <t>10.7.0.5 - 10.7.0.6</t>
+  </si>
+  <si>
+    <t>10.7.0.7</t>
+  </si>
+  <si>
+    <t>10.7.0.8</t>
+  </si>
+  <si>
+    <t>10.7.0.9 - 10.7.0.10</t>
+  </si>
+  <si>
+    <t>10.7.0.11</t>
+  </si>
+  <si>
+    <t>10.7.0.12</t>
+  </si>
+  <si>
+    <t>10.7.0.13 - 10.7.0.14</t>
+  </si>
+  <si>
+    <t>10.7.0.15</t>
+  </si>
+  <si>
+    <t>10.7.0.16</t>
+  </si>
+  <si>
+    <t>10.7.0.17 - 10.7.0.18</t>
+  </si>
+  <si>
+    <t>10.7.0.19</t>
+  </si>
+  <si>
+    <t>10.7.0.20</t>
+  </si>
+  <si>
+    <t>10.7.0.21 - 10.7.0.22</t>
+  </si>
+  <si>
+    <t>10.7.0.23</t>
+  </si>
+  <si>
+    <t>10.7.0.24</t>
+  </si>
+  <si>
+    <t>10.7.0.25 - 10.7.0.26</t>
+  </si>
+  <si>
+    <t>10.7.0.27</t>
+  </si>
+  <si>
+    <t>10.7.0.28</t>
+  </si>
+  <si>
+    <t>10.7.0.29 - 10.7.0.30</t>
+  </si>
+  <si>
+    <t>10.7.0.31</t>
+  </si>
+  <si>
+    <t>10.7.0.32</t>
+  </si>
+  <si>
+    <t>10.7.0.33 - 10.7.0.34</t>
+  </si>
+  <si>
+    <t>10.7.0.35</t>
+  </si>
+  <si>
+    <t>10.7.0.36</t>
+  </si>
+  <si>
+    <t>10.7.0.37 - 10.7.0.38</t>
+  </si>
+  <si>
+    <t>10.7.0.39</t>
+  </si>
+  <si>
+    <t>10.7.0.40</t>
+  </si>
+  <si>
+    <t>10.7.0.41 - 10.7.0.42</t>
+  </si>
+  <si>
+    <t>10.7.0.43</t>
+  </si>
+  <si>
+    <t>10.7.0.44</t>
+  </si>
+  <si>
+    <t>10.7.0.45 - 10.7.0.46</t>
+  </si>
+  <si>
+    <t>10.7.0.47</t>
+  </si>
+  <si>
+    <t>10.7.0.48</t>
+  </si>
+  <si>
+    <t>10.7.0.49 - 10.7.0.50</t>
+  </si>
+  <si>
+    <t>10.7.0.51</t>
+  </si>
+  <si>
+    <t>10.7.0.52</t>
+  </si>
+  <si>
+    <t>10.7.0.53 - 10.7.0.54</t>
+  </si>
+  <si>
+    <t>10.7.0.55</t>
+  </si>
+  <si>
+    <t>10.7.0.56</t>
+  </si>
+  <si>
+    <t>10.7.0.57 - 10.7.0.58</t>
+  </si>
+  <si>
+    <t>10.7.0.59</t>
+  </si>
+  <si>
+    <t>10.7.0.60</t>
+  </si>
+  <si>
+    <t>10.7.0.61 - 10.7.0.62</t>
+  </si>
+  <si>
+    <t>10.7.0.63</t>
+  </si>
+  <si>
+    <t>10.7.0.64</t>
+  </si>
+  <si>
+    <t>10.7.0.65 - 10.7.0.66</t>
+  </si>
+  <si>
+    <t>10.7.0.67</t>
+  </si>
+  <si>
+    <t>10.7.0.68</t>
+  </si>
+  <si>
+    <t>10.7.0.69 - 10.7.0.70</t>
+  </si>
+  <si>
+    <t>10.7.0.71</t>
+  </si>
+  <si>
+    <t>10.7.0.72</t>
+  </si>
+  <si>
+    <t>10.7.0.73 - 10.7.0.74</t>
+  </si>
+  <si>
+    <t>10.7.0.75</t>
+  </si>
+  <si>
+    <t>10.7.0.76</t>
+  </si>
+  <si>
+    <t>10.7.0.77 - 10.7.0.78</t>
+  </si>
+  <si>
+    <t>10.7.0.79</t>
+  </si>
+  <si>
+    <t>10.7.0.80</t>
+  </si>
+  <si>
+    <t>10.7.0.81 - 10.7.0.82</t>
+  </si>
+  <si>
+    <t>10.7.0.83</t>
+  </si>
+  <si>
+    <t>10.7.0.84</t>
+  </si>
+  <si>
+    <t>10.7.0.85 - 10.7.0.86</t>
+  </si>
+  <si>
+    <t>10.7.0.87</t>
+  </si>
+  <si>
+    <t>10.7.0.88</t>
+  </si>
+  <si>
+    <t>10.7.0.89 - 10.7.0.90</t>
+  </si>
+  <si>
+    <t>10.7.0.91</t>
+  </si>
+  <si>
+    <t>10.7.0.92</t>
+  </si>
+  <si>
+    <t>10.7.0.93 - 10.7.0.94</t>
+  </si>
+  <si>
+    <t>10.7.0.95</t>
+  </si>
+  <si>
+    <t>10.7.0.96</t>
+  </si>
+  <si>
+    <t>10.7.0.97 - 10.7.0.98</t>
+  </si>
+  <si>
+    <t>10.7.0.99</t>
+  </si>
+  <si>
+    <t>10.7.0.100</t>
+  </si>
+  <si>
+    <t>10.7.0.101 - 10.7.0.102</t>
+  </si>
+  <si>
+    <t>10.7.0.103</t>
+  </si>
+  <si>
+    <t>10.7.0.104</t>
+  </si>
+  <si>
+    <t>10.7.0.105 - 10.7.0.106</t>
+  </si>
+  <si>
+    <t>10.7.0.107</t>
+  </si>
+  <si>
+    <t>10.7.0.108</t>
+  </si>
+  <si>
+    <t>10.7.0.109 - 10.7.0.110</t>
+  </si>
+  <si>
+    <t>10.7.0.111</t>
+  </si>
+  <si>
+    <t>10.7.0.112</t>
+  </si>
+  <si>
+    <t>10.7.0.113 - 10.7.0.114</t>
+  </si>
+  <si>
+    <t>10.7.0.115</t>
+  </si>
+  <si>
+    <t>10.7.0.116</t>
+  </si>
+  <si>
+    <t>10.7.0.117 - 10.7.0.118</t>
+  </si>
+  <si>
+    <t>10.7.0.119</t>
+  </si>
+  <si>
+    <t>10.7.0.120</t>
+  </si>
+  <si>
+    <t>10.7.0.121 - 10.7.0.122</t>
+  </si>
+  <si>
+    <t>10.7.0.123</t>
+  </si>
+  <si>
+    <t>10.7.0.124</t>
+  </si>
+  <si>
+    <t>10.7.0.125 - 10.7.0.126</t>
+  </si>
+  <si>
+    <t>10.7.0.127</t>
+  </si>
+  <si>
+    <t>10.7.0.128</t>
+  </si>
+  <si>
+    <t>10.7.0.129 - 10.7.0.130</t>
+  </si>
+  <si>
+    <t>10.7.0.131</t>
+  </si>
+  <si>
+    <t>10.7.0.132</t>
+  </si>
+  <si>
+    <t>10.7.0.133 - 10.7.0.134</t>
+  </si>
+  <si>
+    <t>10.7.0.135</t>
+  </si>
+  <si>
+    <t>10.7.0.136</t>
+  </si>
+  <si>
+    <t>10.7.0.137 - 10.7.0.138</t>
+  </si>
+  <si>
+    <t>10.7.0.139</t>
+  </si>
+  <si>
+    <t>10.7.0.140</t>
+  </si>
+  <si>
+    <t>10.7.0.141 - 10.7.0.142</t>
+  </si>
+  <si>
+    <t>10.7.0.143</t>
+  </si>
+  <si>
+    <t>10.7.0.144</t>
+  </si>
+  <si>
+    <t>10.7.0.145 - 10.7.0.146</t>
+  </si>
+  <si>
+    <t>10.7.0.147</t>
+  </si>
+  <si>
+    <t>10.7.0.148</t>
+  </si>
+  <si>
+    <t>10.7.0.149 - 10.7.0.150</t>
+  </si>
+  <si>
+    <t>10.7.0.151</t>
+  </si>
+  <si>
+    <t>10.7.0.152</t>
+  </si>
+  <si>
+    <t>10.7.0.153 - 10.7.0.154</t>
+  </si>
+  <si>
+    <t>10.7.0.155</t>
+  </si>
+  <si>
+    <t>10.7.0.156</t>
+  </si>
+  <si>
+    <t>10.7.0.157 - 10.7.0.158</t>
+  </si>
+  <si>
+    <t>10.7.0.159</t>
+  </si>
+  <si>
+    <t>10.7.0.160</t>
+  </si>
+  <si>
+    <t>10.7.0.161 - 10.7.0.162</t>
+  </si>
+  <si>
+    <t>10.7.0.163</t>
+  </si>
+  <si>
+    <t>10.7.0.164</t>
+  </si>
+  <si>
+    <t>10.7.0.165 - 10.7.0.166</t>
+  </si>
+  <si>
+    <t>10.7.0.167</t>
+  </si>
+  <si>
+    <t>10.7.0.168</t>
+  </si>
+  <si>
+    <t>10.7.0.169 - 10.7.0.170</t>
+  </si>
+  <si>
+    <t>10.7.0.171</t>
+  </si>
+  <si>
+    <t>10.7.0.172</t>
+  </si>
+  <si>
+    <t>10.7.0.173 - 10.7.0.174</t>
+  </si>
+  <si>
+    <t>10.7.0.175</t>
+  </si>
+  <si>
+    <t>10.7.0.176</t>
+  </si>
+  <si>
+    <t>10.7.0.177 - 10.7.0.178</t>
+  </si>
+  <si>
+    <t>10.7.0.179</t>
+  </si>
+  <si>
+    <t>10.7.0.180</t>
+  </si>
+  <si>
+    <t>10.7.0.181 - 10.7.0.182</t>
+  </si>
+  <si>
+    <t>10.7.0.183</t>
+  </si>
+  <si>
+    <t>10.7.0.184</t>
+  </si>
+  <si>
+    <t>10.7.0.185 - 10.7.0.186</t>
+  </si>
+  <si>
+    <t>10.7.0.187</t>
+  </si>
+  <si>
+    <t>10.7.0.188</t>
+  </si>
+  <si>
+    <t>10.7.0.189 - 10.7.0.190</t>
+  </si>
+  <si>
+    <t>10.7.0.191</t>
+  </si>
+  <si>
+    <t>10.7.0.192</t>
+  </si>
+  <si>
+    <t>10.7.0.193 - 10.7.0.194</t>
+  </si>
+  <si>
+    <t>10.7.0.195</t>
+  </si>
+  <si>
+    <t>10.7.0.196</t>
+  </si>
+  <si>
+    <t>10.7.0.197 - 10.7.0.198</t>
+  </si>
+  <si>
+    <t>10.7.0.199</t>
+  </si>
+  <si>
+    <t>10.7.0.200</t>
+  </si>
+  <si>
+    <t>10.7.0.201 - 10.7.0.202</t>
+  </si>
+  <si>
+    <t>10.7.0.203</t>
+  </si>
+  <si>
+    <t>10.7.0.204</t>
+  </si>
+  <si>
+    <t>10.7.0.205 - 10.7.0.206</t>
+  </si>
+  <si>
+    <t>10.7.0.207</t>
+  </si>
+  <si>
+    <t>10.7.0.208</t>
+  </si>
+  <si>
+    <t>10.7.0.209 - 10.7.0.210</t>
+  </si>
+  <si>
+    <t>10.7.0.211</t>
+  </si>
+  <si>
+    <t>10.7.0.212</t>
+  </si>
+  <si>
+    <t>10.7.0.213 - 10.7.0.214</t>
+  </si>
+  <si>
+    <t>10.7.0.215</t>
+  </si>
+  <si>
+    <t>10.7.0.216</t>
+  </si>
+  <si>
+    <t>10.7.0.217 - 10.7.0.218</t>
+  </si>
+  <si>
+    <t>10.7.0.219</t>
+  </si>
+  <si>
+    <t>10.7.0.220</t>
+  </si>
+  <si>
+    <t>10.7.0.221 - 10.7.0.222</t>
+  </si>
+  <si>
+    <t>10.7.0.223</t>
+  </si>
+  <si>
+    <t>10.7.0.224</t>
+  </si>
+  <si>
+    <t>10.7.0.225 - 10.7.0.226</t>
+  </si>
+  <si>
+    <t>10.7.0.227</t>
+  </si>
+  <si>
+    <t>10.7.0.228</t>
+  </si>
+  <si>
+    <t>10.7.0.229 - 10.7.0.230</t>
+  </si>
+  <si>
+    <t>10.7.0.231</t>
+  </si>
+  <si>
+    <t>10.7.0.232</t>
+  </si>
+  <si>
+    <t>10.7.0.233 - 10.7.0.234</t>
+  </si>
+  <si>
+    <t>10.7.0.235</t>
+  </si>
+  <si>
+    <t>10.7.0.236</t>
+  </si>
+  <si>
+    <t>10.7.0.237 - 10.7.0.238</t>
+  </si>
+  <si>
+    <t>10.7.0.239</t>
+  </si>
+  <si>
+    <t>10.7.0.240</t>
+  </si>
+  <si>
+    <t>10.7.0.241 - 10.7.0.242</t>
+  </si>
+  <si>
+    <t>10.7.0.243</t>
+  </si>
+  <si>
+    <t>10.7.0.244</t>
+  </si>
+  <si>
+    <t>10.7.0.245 - 10.7.0.246</t>
+  </si>
+  <si>
+    <t>10.7.0.247</t>
+  </si>
+  <si>
+    <t>10.7.0.248</t>
+  </si>
+  <si>
+    <t>10.7.0.249 - 10.7.0.250</t>
+  </si>
+  <si>
+    <t>10.7.0.251</t>
+  </si>
+  <si>
+    <t>10.7.0.252</t>
+  </si>
+  <si>
+    <t>10.7.0.253 - 10.7.0.254</t>
+  </si>
+  <si>
+    <t>10.7.0.255</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>CIDR</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Channel Group</t>
+  </si>
+  <si>
+    <t>Subnet Name</t>
+  </si>
+  <si>
+    <t>Allocated Size</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Dec Mask</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>10.7.0.1 - 10.7.0.254</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>10.7.1.0</t>
+  </si>
+  <si>
+    <t>10.7.1.1 - 10.7.1.254</t>
+  </si>
+  <si>
+    <t>10.7.1.255</t>
+  </si>
+  <si>
+    <t>Sales + Marketing</t>
+  </si>
+  <si>
+    <t>10.7.2.0</t>
+  </si>
+  <si>
+    <t>10.7.2.1 - 10.7.2.254</t>
+  </si>
+  <si>
+    <t>10.7.2.255</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>10.7.3.0</t>
+  </si>
+  <si>
+    <t>10.7.3.1 - 10.7.3.254</t>
+  </si>
+  <si>
+    <t>10.7.3.255</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>10.7.4.0</t>
+  </si>
+  <si>
+    <t>10.7.4.1 - 10.7.4.254</t>
+  </si>
+  <si>
+    <t>10.7.4.255</t>
+  </si>
+  <si>
+    <t>mgmt</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>loopbacks</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,19 +816,170 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -55,8 +988,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,13 +1363,2868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803ED9E1-540B-4AC0-AD62-5ECC260E1678}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="21">
+        <v>254</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="21">
+        <v>254</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="21">
+        <v>254</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="21">
+        <v>254</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="21">
+        <v>254</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A2D53F-FEFC-4086-8BA3-73B39654F478}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="16.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <f>0+1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <f t="shared" ref="A6:A65" si="0">A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AY29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="2" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+    </row>
+    <row r="2" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+    </row>
+    <row r="3" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+    </row>
+    <row r="4" spans="1:51" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+    </row>
+    <row r="5" spans="1:51" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+    </row>
+    <row r="6" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+    </row>
+    <row r="7" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+    </row>
+    <row r="8" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+    </row>
+    <row r="9" spans="1:51" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83684057-86F7-4253-A244-D8432EBA660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F3A84-44FC-4BA4-9486-FF04A391066A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39570" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39570" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="260">
   <si>
     <t>Device Name</t>
   </si>
@@ -714,9 +714,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>CIDR</t>
   </si>
   <si>
@@ -802,6 +799,24 @@
   </si>
   <si>
     <t>loopbacks</t>
+  </si>
+  <si>
+    <t>G0/1/0</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Dest.</t>
+  </si>
+  <si>
+    <t>G1/1/2</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Fibre</t>
   </si>
 </sst>
 </file>
@@ -830,13 +845,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -860,6 +868,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -988,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,38 +1065,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1382,34 +1400,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="21">
         <v>254</v>
       </c>
@@ -1417,130 +1435,130 @@
         <v>19</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>235</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="26"/>
       <c r="C3" s="21">
         <v>254</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="21">
         <v>254</v>
       </c>
       <c r="D4" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="21">
         <v>254</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="21" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="21">
         <v>254</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="21" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="E7" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>252</v>
-      </c>
-      <c r="E7" s="31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1550,1722 +1568,1808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A2D53F-FEFC-4086-8BA3-73B39654F478}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="6" width="16.42578125" style="23" customWidth="1"/>
+    <col min="1" max="6" width="16.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
         <f>0+1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="H2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
+      <c r="B3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="H4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="L4" s="33"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="21" t="s">
+      <c r="H5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
         <f t="shared" ref="A6:A65" si="0">A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="H6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="H7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="H8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="H9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="H10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="H11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="H12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="H13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="21" t="s">
+      <c r="H14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="21" t="s">
+      <c r="H15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="21" t="s">
+      <c r="H16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="21" t="s">
+      <c r="H17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="33" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="21" t="s">
+      <c r="H18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="21" t="s">
+      <c r="H19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="21" t="s">
+      <c r="H20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21" t="s">
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="21" t="s">
+      <c r="H21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21" t="s">
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="21" t="s">
+      <c r="H22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="21" t="s">
+      <c r="H23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="21" t="s">
+      <c r="H24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="21" t="s">
+      <c r="H25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="21" t="s">
+      <c r="H26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="21" t="s">
+      <c r="H27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="33" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="21" t="s">
+      <c r="H28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="33" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="L28" s="33"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="21" t="s">
+      <c r="H29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="21" t="s">
+      <c r="H30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="21" t="s">
+      <c r="H31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="L31" s="33"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="21" t="s">
+      <c r="H32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
+      <c r="L32" s="33"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="21" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="21" t="s">
+      <c r="H33" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="33" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="L33" s="33"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="21" t="s">
+      <c r="H34" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="33" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="L34" s="33"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="21" t="s">
+      <c r="H35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
+      <c r="L35" s="33"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="21" t="s">
+      <c r="H36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="33" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
+      <c r="L36" s="33"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="21" t="s">
+      <c r="H37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="21" t="s">
+      <c r="H38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="33" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
+      <c r="L38" s="33"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="21" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="21" t="s">
+      <c r="H39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="33" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
+      <c r="L39" s="33"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="21" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="21" t="s">
+      <c r="H40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="33" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
+      <c r="L40" s="33"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="21" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="21" t="s">
+      <c r="H41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="21" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="21" t="s">
+      <c r="H42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
+      <c r="L42" s="33"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" s="21" t="s">
+      <c r="H43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="K43" s="33" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
+      <c r="L43" s="33"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="21" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="21" t="s">
+      <c r="H44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
+      <c r="L44" s="33"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="21" t="s">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="H45" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="21" t="s">
+      <c r="H45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="K45" s="33" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
+      <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="21" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="21" t="s">
+      <c r="H46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="K46" s="21" t="s">
+      <c r="K46" s="33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="L46" s="33"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="21" t="s">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="21" t="s">
+      <c r="H47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="21" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="H48" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="21" t="s">
+      <c r="H48" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="33" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="L48" s="33"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="21" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="H49" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="21" t="s">
+      <c r="H49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="K49" s="21" t="s">
+      <c r="K49" s="33" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="L49" s="33"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="21" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="21" t="s">
+      <c r="H50" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="33" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="L50" s="33"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="H51" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="21" t="s">
+      <c r="H51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="K51" s="21" t="s">
+      <c r="K51" s="33" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
+      <c r="L51" s="33"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="21" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="21" t="s">
+      <c r="H52" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="K52" s="33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
+      <c r="L52" s="33"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="21" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="H53" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="21" t="s">
+      <c r="H53" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="K53" s="21" t="s">
+      <c r="K53" s="33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="L53" s="33"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="21" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="H54" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="21" t="s">
+      <c r="H54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="K54" s="21" t="s">
+      <c r="K54" s="33" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
+      <c r="L54" s="33"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="21" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="H55" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="21" t="s">
+      <c r="H55" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="K55" s="21" t="s">
+      <c r="K55" s="33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
+      <c r="L55" s="33"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="21" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="21" t="s">
+      <c r="H56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="K56" s="21" t="s">
+      <c r="K56" s="33" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
+      <c r="L56" s="33"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="21" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="21" t="s">
+      <c r="H57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="K57" s="21" t="s">
+      <c r="K57" s="33" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="21" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H58" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="21" t="s">
+      <c r="H58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="K58" s="33" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
+      <c r="L58" s="33"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="21" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="H59" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="21" t="s">
+      <c r="H59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="K59" s="21" t="s">
+      <c r="K59" s="33" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="21" t="s">
+      <c r="H60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="K60" s="21" t="s">
+      <c r="K60" s="33" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="21" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="21" t="s">
+      <c r="H61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="K61" s="21" t="s">
+      <c r="K61" s="33" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="21" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="21" t="s">
+      <c r="H62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="K62" s="21" t="s">
+      <c r="K62" s="33" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="21" t="s">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H63" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="21" t="s">
+      <c r="H63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="K63" s="21" t="s">
+      <c r="K63" s="33" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="21" t="s">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H64" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="21" t="s">
+      <c r="H64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="K64" s="21" t="s">
+      <c r="K64" s="33" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="L64" s="33"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="21" t="s">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="H65" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" s="21" t="s">
+      <c r="H65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="K65" s="21" t="s">
+      <c r="K65" s="33" t="s">
         <v>223</v>
       </c>
+      <c r="L65" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3277,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>

--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7867F2-CD85-426F-AB35-C086A0AD00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC58FA5-0031-4771-AFD2-EB6F66962872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="P2P IP Addressing" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Access Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="285">
   <si>
     <t>Mask</t>
   </si>
@@ -738,9 +740,6 @@
     <t>10.7.1.1 - 10.7.1.254</t>
   </si>
   <si>
-    <t>10.7.1.255</t>
-  </si>
-  <si>
     <t>Sales + Marketing</t>
   </si>
   <si>
@@ -786,41 +785,122 @@
     <t>loopbacks</t>
   </si>
   <si>
-    <t>G0/1/0</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>Dest.</t>
   </si>
   <si>
-    <t>G1/1/2</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Fibre</t>
-  </si>
-  <si>
     <t>Device</t>
   </si>
   <si>
-    <t>Router</t>
-  </si>
-  <si>
     <t>Ch#</t>
   </si>
   <si>
     <t>IP</t>
+  </si>
+  <si>
+    <t>VLAN 30</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>VLAN 20</t>
+  </si>
+  <si>
+    <t>VLAN 10</t>
+  </si>
+  <si>
+    <t>VLAN 40</t>
+  </si>
+  <si>
+    <t>VLAN 51</t>
+  </si>
+  <si>
+    <t>10.7.3.0/24</t>
+  </si>
+  <si>
+    <t>10.7.1.0/24</t>
+  </si>
+  <si>
+    <t>10.7.2.0/24</t>
+  </si>
+  <si>
+    <t>10.7.4.0/24</t>
+  </si>
+  <si>
+    <t>10.7.0.80/30</t>
+  </si>
+  <si>
+    <t>10.7.0.76/30</t>
+  </si>
+  <si>
+    <t>10.7.0.72/30</t>
+  </si>
+  <si>
+    <t>10.7.0.68/30</t>
+  </si>
+  <si>
+    <t>10.7.0.64/30</t>
+  </si>
+  <si>
+    <t>10.7.0.60/30</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>001.</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>/21</t>
+  </si>
+  <si>
+    <t>10.7.0.0/21</t>
+  </si>
+  <si>
+    <t>10.7.10.0</t>
+  </si>
+  <si>
+    <t>10.7.10.1 - 10.7.10.254</t>
+  </si>
+  <si>
+    <t>10.7.10.255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,12 +922,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -863,18 +937,18 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +976,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,41 +1132,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,26 +1445,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803ED9E1-540B-4AC0-AD62-5ECC260E1678}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28" t="s">
+        <v>255</v>
+      </c>
       <c r="C1" s="28" t="s">
         <v>224</v>
       </c>
@@ -1411,10 +1489,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="31">
         <v>254</v>
       </c>
@@ -1435,10 +1513,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>257</v>
+      </c>
       <c r="C3" s="31">
         <v>254</v>
       </c>
@@ -1455,19 +1535,21 @@
         <v>232</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>256</v>
+      </c>
       <c r="C4" s="31">
         <v>254</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>227</v>
@@ -1476,22 +1558,24 @@
         <v>228</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>254</v>
+      </c>
       <c r="C5" s="31">
         <v>254</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>227</v>
@@ -1500,22 +1584,24 @@
         <v>228</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="31" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="C6" s="31">
         <v>254</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>227</v>
@@ -1524,52 +1610,65 @@
         <v>228</v>
       </c>
       <c r="G6" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H6" s="31" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31">
+        <v>254</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34">
-        <v>24</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="B9" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1578,7 +1677,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,22 +1701,22 @@
         <v>219</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>12</v>
@@ -1642,24 +1741,12 @@
       <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="25" t="s">
         <v>14</v>
       </c>
@@ -1682,24 +1769,12 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>254</v>
-      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="27" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +1850,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
-        <f t="shared" ref="A6:B65" si="0">A5+1</f>
+        <f t="shared" ref="A6:A65" si="0">A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="26"/>
@@ -3463,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3490,22 +3565,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>12</v>
@@ -4444,4 +4519,526 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1">
+        <v>255</v>
+      </c>
+      <c r="C1">
+        <v>255</v>
+      </c>
+      <c r="D1">
+        <v>255</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>255</v>
+      </c>
+      <c r="D2">
+        <v>255</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>255</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>255</v>
+      </c>
+      <c r="C4">
+        <v>255</v>
+      </c>
+      <c r="D4">
+        <v>255</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>252</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6">
+        <v>255</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>252</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>252</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>252</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9">
+        <v>255</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>252</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10">
+        <v>255</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>252</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11">
+        <v>255</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>248</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1111</v>
+      </c>
+      <c r="H11">
+        <v>1111</v>
+      </c>
+      <c r="I11">
+        <v>1111</v>
+      </c>
+      <c r="J11">
+        <v>1111</v>
+      </c>
+      <c r="K11">
+        <v>1111</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G1:H1 I1:N4 G2:H4 G5:J10 K5:L10 M5:N10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC58FA5-0031-4771-AFD2-EB6F66962872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721CD95-EE22-4F3A-A88F-14E97CEED649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="345" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Access Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="291">
   <si>
     <t>Mask</t>
   </si>
@@ -894,6 +893,24 @@
   </si>
   <si>
     <t>10.7.10.255</t>
+  </si>
+  <si>
+    <t>10.7.10.5/32</t>
+  </si>
+  <si>
+    <t>10.7.10.6/32</t>
+  </si>
+  <si>
+    <t>10.7.10.7/32</t>
+  </si>
+  <si>
+    <t>/32</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1101</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803ED9E1-540B-4AC0-AD62-5ECC260E1678}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,7 +5005,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B11">
         <v>255</v>
@@ -4997,48 +5014,183 @@
         <v>255</v>
       </c>
       <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>255</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12">
+        <v>255</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>255</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13">
+        <v>255</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>255</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14">
+        <v>255</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
         <v>248</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G14">
         <v>1111</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>1111</v>
       </c>
-      <c r="I11">
+      <c r="I14">
         <v>1111</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>1111</v>
       </c>
-      <c r="K11">
+      <c r="K14">
         <v>1111</v>
       </c>
-      <c r="L11">
+      <c r="L14">
         <v>1000</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O11" s="30" t="s">
+      <c r="M14" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O14" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="P11" s="30"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O12" s="30"/>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G1:H1 I1:N4 G2:H4 G5:J10 K5:L10 M5:N10" numberStoredAsText="1"/>
+    <ignoredError sqref="G1:H1 I1:N4 G2:H4 G5:J10 K5:L10 M5:N10 G14:N14 G11:J13 K11:L13 M11:M13 N11:N13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3721CD95-EE22-4F3A-A88F-14E97CEED649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD9AC3-8DF1-4C2D-A905-8FB3661D79BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="345" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="345" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="294">
   <si>
     <t>Mask</t>
   </si>
@@ -880,12 +880,6 @@
     <t>0101</t>
   </si>
   <si>
-    <t>/21</t>
-  </si>
-  <si>
-    <t>10.7.0.0/21</t>
-  </si>
-  <si>
     <t>10.7.10.0</t>
   </si>
   <si>
@@ -911,6 +905,21 @@
   </si>
   <si>
     <t>1101</t>
+  </si>
+  <si>
+    <t>10.7.0.48/30</t>
+  </si>
+  <si>
+    <t>/20</t>
+  </si>
+  <si>
+    <t>10.7.0.0/20</t>
+  </si>
+  <si>
+    <t>10.7.10.3/32</t>
+  </si>
+  <si>
+    <t>10.7.10.4/32</t>
   </si>
 </sst>
 </file>
@@ -965,7 +974,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +1008,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,6 +1201,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,7 +1671,7 @@
         <v>254</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>227</v>
@@ -1651,10 +1680,10 @@
         <v>228</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4540,657 +4569,1046 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="35">
+        <v>255</v>
+      </c>
+      <c r="C1" s="35">
+        <v>255</v>
+      </c>
+      <c r="D1" s="35">
+        <v>255</v>
+      </c>
+      <c r="E1" s="35">
+        <v>252</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="35">
+        <v>255</v>
+      </c>
+      <c r="C2" s="35">
+        <v>255</v>
+      </c>
+      <c r="D2" s="35">
+        <v>255</v>
+      </c>
+      <c r="E2" s="35">
+        <v>252</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="35">
+        <v>255</v>
+      </c>
+      <c r="C3" s="35">
+        <v>255</v>
+      </c>
+      <c r="D3" s="35">
+        <v>255</v>
+      </c>
+      <c r="E3" s="35">
+        <v>252</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="35">
+        <v>255</v>
+      </c>
+      <c r="C4" s="35">
+        <v>255</v>
+      </c>
+      <c r="D4" s="35">
+        <v>255</v>
+      </c>
+      <c r="E4" s="35">
+        <v>252</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="35">
+        <v>255</v>
+      </c>
+      <c r="C5" s="35">
+        <v>255</v>
+      </c>
+      <c r="D5" s="35">
+        <v>255</v>
+      </c>
+      <c r="E5" s="35">
+        <v>252</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="35">
+        <v>255</v>
+      </c>
+      <c r="C6" s="35">
+        <v>255</v>
+      </c>
+      <c r="D6" s="35">
+        <v>255</v>
+      </c>
+      <c r="E6" s="35">
+        <v>252</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="35">
+        <v>255</v>
+      </c>
+      <c r="C7" s="35">
+        <v>255</v>
+      </c>
+      <c r="D7" s="35">
+        <v>255</v>
+      </c>
+      <c r="E7" s="35">
+        <v>252</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="B1">
+      <c r="B8" s="35">
         <v>255</v>
       </c>
-      <c r="C1">
+      <c r="C8" s="35">
         <v>255</v>
       </c>
-      <c r="D1">
+      <c r="D8" s="35">
         <v>255</v>
       </c>
-      <c r="E1">
+      <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="I8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L1" s="30" t="s">
+      <c r="K8" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="M1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" s="30" t="s">
+      <c r="M8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="P1" s="30"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="B2">
+      <c r="B9" s="35">
         <v>255</v>
       </c>
-      <c r="C2">
+      <c r="C9" s="35">
         <v>255</v>
       </c>
-      <c r="D2">
+      <c r="D9" s="35">
         <v>255</v>
       </c>
-      <c r="E2">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="30" t="s">
+      <c r="I9" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L2" s="30" t="s">
+      <c r="K9" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L9" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O2" s="30" t="s">
+      <c r="M9" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="B3">
+      <c r="B10" s="35">
         <v>255</v>
       </c>
-      <c r="C3">
+      <c r="C10" s="35">
         <v>255</v>
       </c>
-      <c r="D3">
+      <c r="D10" s="35">
         <v>255</v>
       </c>
-      <c r="E3">
+      <c r="E10" s="35">
         <v>0</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="30" t="s">
+      <c r="I10" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="30" t="s">
+      <c r="K10" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O3" s="30" t="s">
+      <c r="M10" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O10" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="P3" s="30"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="B4">
+      <c r="B11" s="35">
         <v>255</v>
       </c>
-      <c r="C4">
+      <c r="C11" s="35">
         <v>255</v>
       </c>
-      <c r="D4">
+      <c r="D11" s="35">
         <v>255</v>
       </c>
-      <c r="E4">
+      <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="I11" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L4" s="30" t="s">
+      <c r="K11" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="M4" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O4" s="30" t="s">
+      <c r="M11" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O11" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="P4" s="30"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5">
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="35">
         <v>255</v>
       </c>
-      <c r="C5">
+      <c r="C12" s="35">
         <v>255</v>
       </c>
-      <c r="D5">
+      <c r="D12" s="35">
         <v>255</v>
       </c>
-      <c r="E5">
-        <v>252</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="E12" s="35">
+        <v>255</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="I12" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="30" t="s">
+      <c r="K12" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="N5" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="30"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6">
+      <c r="O12" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="35">
         <v>255</v>
       </c>
-      <c r="C6">
+      <c r="C13" s="35">
         <v>255</v>
       </c>
-      <c r="D6">
+      <c r="D13" s="35">
         <v>255</v>
       </c>
-      <c r="E6">
-        <v>252</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="E13" s="35">
+        <v>255</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="I13" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="30"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7">
+      <c r="K13" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="35">
         <v>255</v>
       </c>
-      <c r="C7">
+      <c r="C14" s="35">
         <v>255</v>
       </c>
-      <c r="D7">
+      <c r="D14" s="35">
         <v>255</v>
       </c>
-      <c r="E7">
-        <v>252</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="E14" s="35">
+        <v>255</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="I14" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="30"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8">
+      <c r="K14" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="35">
         <v>255</v>
       </c>
-      <c r="C8">
+      <c r="C15" s="35">
         <v>255</v>
       </c>
-      <c r="D8">
+      <c r="D15" s="35">
         <v>255</v>
       </c>
-      <c r="E8">
-        <v>252</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="E15" s="35">
+        <v>255</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="30" t="s">
+      <c r="I15" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" s="30"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9">
+      <c r="K15" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="35">
         <v>255</v>
       </c>
-      <c r="C9">
+      <c r="C16" s="35">
         <v>255</v>
       </c>
-      <c r="D9">
+      <c r="D16" s="35">
         <v>255</v>
       </c>
-      <c r="E9">
-        <v>252</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="E16" s="35">
+        <v>255</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="30" t="s">
+      <c r="I16" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="30"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10">
+      <c r="K16" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="35">
         <v>255</v>
       </c>
-      <c r="C10">
+      <c r="C18" s="35">
         <v>255</v>
       </c>
-      <c r="D10">
-        <v>255</v>
-      </c>
-      <c r="E10">
-        <v>252</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="30"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11">
-        <v>255</v>
-      </c>
-      <c r="C11">
-        <v>255</v>
-      </c>
-      <c r="D11">
-        <v>255</v>
-      </c>
-      <c r="E11">
-        <v>255</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="P11" s="30"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12">
-        <v>255</v>
-      </c>
-      <c r="C12">
-        <v>255</v>
-      </c>
-      <c r="D12">
-        <v>255</v>
-      </c>
-      <c r="E12">
-        <v>255</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="P12" s="30"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13">
-        <v>255</v>
-      </c>
-      <c r="C13">
-        <v>255</v>
-      </c>
-      <c r="D13">
-        <v>255</v>
-      </c>
-      <c r="E13">
-        <v>255</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N13" s="30" t="s">
+      <c r="D18" s="35">
+        <v>240</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="39">
+        <v>1111</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1111</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1111</v>
+      </c>
+      <c r="J18" s="40">
+        <v>1111</v>
+      </c>
+      <c r="K18" s="39">
+        <v>1111</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O18" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="O13" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="P13" s="30"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14">
-        <v>255</v>
-      </c>
-      <c r="C14">
-        <v>255</v>
-      </c>
-      <c r="D14">
-        <v>248</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1111</v>
-      </c>
-      <c r="H14">
-        <v>1111</v>
-      </c>
-      <c r="I14">
-        <v>1111</v>
-      </c>
-      <c r="J14">
-        <v>1111</v>
-      </c>
-      <c r="K14">
-        <v>1111</v>
-      </c>
-      <c r="L14">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="P14" s="30"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O15" s="30"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G1:H1 I1:N4 G2:H4 G5:J10 K5:L10 M5:N10 G14:N14 G11:J13 K11:L13 M11:M13 N11:N13" numberStoredAsText="1"/>
+    <ignoredError sqref="G2:N7 G1:M1 G14:O16 O1:O7 G18:N18 G8:O11 G12:N12 G13:N13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD9AC3-8DF1-4C2D-A905-8FB3661D79BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A0403-E58E-42E4-8089-2EA207DFA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="345" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="479" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="294">
   <si>
     <t>Mask</t>
   </si>
@@ -781,9 +781,6 @@
     <t>parking</t>
   </si>
   <si>
-    <t>loopbacks</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -880,15 +877,6 @@
     <t>0101</t>
   </si>
   <si>
-    <t>10.7.10.0</t>
-  </si>
-  <si>
-    <t>10.7.10.1 - 10.7.10.254</t>
-  </si>
-  <si>
-    <t>10.7.10.255</t>
-  </si>
-  <si>
     <t>10.7.10.5/32</t>
   </si>
   <si>
@@ -920,6 +908,18 @@
   </si>
   <si>
     <t>10.7.10.4/32</t>
+  </si>
+  <si>
+    <t>10.7.5.0</t>
+  </si>
+  <si>
+    <t>10.7.1.255</t>
+  </si>
+  <si>
+    <t>10.7.5.1 - 10.7.5.254</t>
+  </si>
+  <si>
+    <t>10.7.5.255</t>
   </si>
 </sst>
 </file>
@@ -1489,20 +1489,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803ED9E1-540B-4AC0-AD62-5ECC260E1678}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="29" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="29"/>
@@ -1513,7 +1513,7 @@
         <v>223</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>224</v>
@@ -1563,7 +1563,7 @@
         <v>233</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="31">
         <v>254</v>
@@ -1581,7 +1581,7 @@
         <v>232</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>237</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="31">
         <v>254</v>
@@ -1607,7 +1607,7 @@
         <v>235</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>230</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="31">
         <v>254</v>
@@ -1641,7 +1641,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="31">
         <v>254</v>
@@ -1671,7 +1671,7 @@
         <v>254</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>227</v>
@@ -1680,37 +1680,25 @@
         <v>228</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="31"/>
+        <v>246</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,22 +1735,22 @@
         <v>219</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>12</v>
@@ -3611,22 +3599,22 @@
         <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>12</v>
@@ -4571,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,7 +4575,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B1" s="35">
         <v>255</v>
@@ -4603,28 +4591,28 @@
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K1" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O1" s="38" t="s">
         <v>15</v>
@@ -4633,7 +4621,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="35">
         <v>255</v>
@@ -4649,28 +4637,28 @@
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="I2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K2" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>15</v>
@@ -4679,7 +4667,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B3" s="35">
         <v>255</v>
@@ -4695,28 +4683,28 @@
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K3" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O3" s="38" t="s">
         <v>15</v>
@@ -4725,7 +4713,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="35">
         <v>255</v>
@@ -4741,28 +4729,28 @@
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="I4" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K4" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>15</v>
@@ -4771,7 +4759,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="35">
         <v>255</v>
@@ -4787,28 +4775,28 @@
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="I5" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K5" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O5" s="38" t="s">
         <v>15</v>
@@ -4817,7 +4805,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="35">
         <v>255</v>
@@ -4833,28 +4821,28 @@
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="I6" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K6" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M6" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="N6" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>277</v>
       </c>
       <c r="O6" s="38" t="s">
         <v>15</v>
@@ -4863,7 +4851,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" s="35">
         <v>255</v>
@@ -4879,28 +4867,28 @@
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="I7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K7" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O7" s="38" t="s">
         <v>15</v>
@@ -4909,7 +4897,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="35">
         <v>255</v>
@@ -4925,28 +4913,28 @@
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="I8" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>273</v>
-      </c>
       <c r="M8" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O8" s="38" t="s">
         <v>227</v>
@@ -4955,7 +4943,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="35">
         <v>255</v>
@@ -4971,28 +4959,28 @@
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="I9" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K9" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O9" s="38" t="s">
         <v>227</v>
@@ -5001,7 +4989,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="35">
         <v>255</v>
@@ -5017,28 +5005,28 @@
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H10" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="I10" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K10" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O10" s="38" t="s">
         <v>227</v>
@@ -5047,7 +5035,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="35">
         <v>255</v>
@@ -5063,28 +5051,28 @@
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="I11" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="K11" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>227</v>
@@ -5093,7 +5081,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B12" s="35">
         <v>255</v>
@@ -5109,37 +5097,37 @@
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="I12" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="K12" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J12" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>271</v>
-      </c>
       <c r="M12" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B13" s="35">
         <v>255</v>
@@ -5155,37 +5143,37 @@
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="I13" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="K13" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J13" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>271</v>
-      </c>
       <c r="M13" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B14" s="35">
         <v>255</v>
@@ -5201,37 +5189,37 @@
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="I14" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="K14" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>271</v>
-      </c>
       <c r="M14" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B15" s="35">
         <v>255</v>
@@ -5247,37 +5235,37 @@
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="I15" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="K15" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L15" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J15" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="K15" s="36" t="s">
+      <c r="M15" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="N15" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="L15" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>271</v>
-      </c>
       <c r="O15" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B16" s="35">
         <v>255</v>
@@ -5293,31 +5281,31 @@
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="I16" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="K16" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>271</v>
-      </c>
       <c r="M16" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P16" s="30"/>
     </row>
@@ -5340,7 +5328,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B18" s="35">
         <v>255</v>
@@ -5371,16 +5359,16 @@
         <v>1111</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P18" s="30"/>
     </row>
@@ -5524,86 +5512,14 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539A0403-E58E-42E4-8089-2EA207DFA448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8BE57F-6AB6-4B96-9F44-4F6026E7C98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="479" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="479" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="292">
   <si>
     <t>Mask</t>
   </si>
@@ -829,24 +829,6 @@
     <t>10.7.4.0/24</t>
   </si>
   <si>
-    <t>10.7.0.80/30</t>
-  </si>
-  <si>
-    <t>10.7.0.76/30</t>
-  </si>
-  <si>
-    <t>10.7.0.72/30</t>
-  </si>
-  <si>
-    <t>10.7.0.68/30</t>
-  </si>
-  <si>
-    <t>10.7.0.64/30</t>
-  </si>
-  <si>
-    <t>10.7.0.60/30</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -859,9 +841,6 @@
     <t>0001</t>
   </si>
   <si>
-    <t>001.</t>
-  </si>
-  <si>
     <t>0011</t>
   </si>
   <si>
@@ -880,30 +859,9 @@
     <t>10.7.10.5/32</t>
   </si>
   <si>
-    <t>10.7.10.6/32</t>
-  </si>
-  <si>
-    <t>10.7.10.7/32</t>
-  </si>
-  <si>
     <t>/32</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>10.7.0.48/30</t>
-  </si>
-  <si>
-    <t>/20</t>
-  </si>
-  <si>
-    <t>10.7.0.0/20</t>
-  </si>
-  <si>
     <t>10.7.10.3/32</t>
   </si>
   <si>
@@ -920,6 +878,42 @@
   </si>
   <si>
     <t>10.7.5.255</t>
+  </si>
+  <si>
+    <t>10.7.10.1/32</t>
+  </si>
+  <si>
+    <t>10.7.10.2/32</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>10.7.0.0/30</t>
+  </si>
+  <si>
+    <t>10.7.0.4/30</t>
+  </si>
+  <si>
+    <t>10.7.0.8/30</t>
+  </si>
+  <si>
+    <t>10.7.0.12/30</t>
+  </si>
+  <si>
+    <t>10.7.0.16/30</t>
+  </si>
+  <si>
+    <t>10.7.0.20/30</t>
+  </si>
+  <si>
+    <t>10.7.0.24/30</t>
+  </si>
+  <si>
+    <t>/21</t>
+  </si>
+  <si>
+    <t>10.7.0.0/21</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803ED9E1-540B-4AC0-AD62-5ECC260E1678}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1581,7 +1575,7 @@
         <v>232</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1671,7 +1665,7 @@
         <v>254</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>227</v>
@@ -1680,10 +1674,10 @@
         <v>228</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4557,10 +4551,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B1" s="35">
         <v>255</v>
@@ -4587,41 +4581,41 @@
         <v>255</v>
       </c>
       <c r="E1" s="35">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B2" s="35">
         <v>255</v>
@@ -4633,41 +4627,41 @@
         <v>255</v>
       </c>
       <c r="E2" s="35">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F2" s="35"/>
       <c r="G2" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B3" s="35">
         <v>255</v>
@@ -4679,41 +4673,41 @@
         <v>255</v>
       </c>
       <c r="E3" s="35">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B4" s="35">
         <v>255</v>
@@ -4725,41 +4719,41 @@
         <v>255</v>
       </c>
       <c r="E4" s="35">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B5" s="35">
         <v>255</v>
@@ -4771,87 +4765,59 @@
         <v>255</v>
       </c>
       <c r="E5" s="35">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J5" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>277</v>
-      </c>
       <c r="O5" s="38" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="35">
-        <v>255</v>
-      </c>
-      <c r="C6" s="35">
-        <v>255</v>
-      </c>
-      <c r="D6" s="35">
-        <v>255</v>
-      </c>
-      <c r="E6" s="35">
-        <v>252</v>
-      </c>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="B7" s="35">
         <v>255</v>
@@ -4867,28 +4833,28 @@
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O7" s="38" t="s">
         <v>15</v>
@@ -4897,7 +4863,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B8" s="35">
         <v>255</v>
@@ -4909,41 +4875,41 @@
         <v>255</v>
       </c>
       <c r="E8" s="35">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="B9" s="35">
         <v>255</v>
@@ -4955,41 +4921,41 @@
         <v>255</v>
       </c>
       <c r="E9" s="35">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H9" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="N9" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>269</v>
-      </c>
       <c r="O9" s="38" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="B10" s="35">
         <v>255</v>
@@ -5001,41 +4967,41 @@
         <v>255</v>
       </c>
       <c r="E10" s="35">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>269</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B11" s="35">
         <v>255</v>
@@ -5047,37 +5013,36 @@
         <v>255</v>
       </c>
       <c r="E11" s="35">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="P11" s="30"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -5093,37 +5058,36 @@
         <v>255</v>
       </c>
       <c r="E12" s="35">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="30"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -5139,41 +5103,40 @@
         <v>255</v>
       </c>
       <c r="E13" s="35">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H13" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>277</v>
-      </c>
       <c r="O13" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="P13" s="30"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B14" s="35">
         <v>255</v>
@@ -5185,41 +5148,40 @@
         <v>255</v>
       </c>
       <c r="E14" s="35">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="P14" s="30"/>
+        <v>263</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="B15" s="35">
         <v>255</v>
@@ -5231,41 +5193,40 @@
         <v>255</v>
       </c>
       <c r="E15" s="35">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="P15" s="30"/>
+        <v>263</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B16" s="35">
         <v>255</v>
@@ -5277,110 +5238,144 @@
         <v>255</v>
       </c>
       <c r="E16" s="35">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H16" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="35">
+        <v>255</v>
+      </c>
+      <c r="C17" s="35">
+        <v>255</v>
+      </c>
+      <c r="D17" s="35">
+        <v>255</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="35"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="35">
+        <v>255</v>
+      </c>
+      <c r="C19" s="35">
+        <v>255</v>
+      </c>
+      <c r="D19" s="35">
+        <v>248</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="39">
+        <v>1111</v>
+      </c>
+      <c r="H19" s="39">
+        <v>1111</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1111</v>
+      </c>
+      <c r="J19" s="40">
+        <v>1111</v>
+      </c>
+      <c r="K19" s="39">
+        <v>1111</v>
+      </c>
+      <c r="L19" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="P16" s="30"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="35"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" s="35">
-        <v>255</v>
-      </c>
-      <c r="C18" s="35">
-        <v>255</v>
-      </c>
-      <c r="D18" s="35">
-        <v>240</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="39">
-        <v>1111</v>
-      </c>
-      <c r="H18" s="39">
-        <v>1111</v>
-      </c>
-      <c r="I18" s="40">
-        <v>1111</v>
-      </c>
-      <c r="J18" s="40">
-        <v>1111</v>
-      </c>
-      <c r="K18" s="39">
-        <v>1111</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="P18" s="30"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="M19" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G20"/>
@@ -5520,11 +5515,12 @@
     <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G2:N7 G1:M1 G14:O16 O1:O7 G18:N18 G8:O11 G12:N12 G13:N13" numberStoredAsText="1"/>
+    <ignoredError sqref="G1:J1 G19:L19 G5:J5 G2:J2 G3:J3 G4:J4 K5:L5 K1:L1 O1 K2:L2 O2 K3:L3 O3 K4:L4 O4 O5 M1:N5 G7:K7 M7:N7 L7:L13 K8:K13 G8:J17 K14:L17 M8:N9 M10:N12 M13:N13 M14:N17 M19:N19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8BE57F-6AB6-4B96-9F44-4F6026E7C98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE9DEA3-50CD-42BB-9CCF-8A0733D1CD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="479" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="479" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="P2P IP Addressing" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Access Summary" sheetId="4" r:id="rId4"/>
+    <sheet name="Access Summary Area 99" sheetId="4" r:id="rId4"/>
+    <sheet name="Access Summary Area 0" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="305">
   <si>
     <t>Mask</t>
   </si>
@@ -910,10 +911,49 @@
     <t>10.7.0.24/30</t>
   </si>
   <si>
-    <t>/21</t>
-  </si>
-  <si>
-    <t>10.7.0.0/21</t>
+    <t>10.7.0.36/30</t>
+  </si>
+  <si>
+    <t>10.7.0.52/30</t>
+  </si>
+  <si>
+    <t>10.7.0.40/30</t>
+  </si>
+  <si>
+    <t>10.7.0.32/30</t>
+  </si>
+  <si>
+    <t>10.7.0.28/30</t>
+  </si>
+  <si>
+    <t>10.7.0.44/30</t>
+  </si>
+  <si>
+    <t>10.7.0.60/30</t>
+  </si>
+  <si>
+    <t>10.7.0.56/30</t>
+  </si>
+  <si>
+    <t>10.7.0.48/30</t>
+  </si>
+  <si>
+    <t>10.7.0.64/30</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>10.7.0.0/25</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>/20</t>
+  </si>
+  <si>
+    <t>10.7.0.0/20</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1008,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,6 +1054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,6 +1249,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4551,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4798,26 +4846,54 @@
       <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="A6" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="35">
+        <v>255</v>
+      </c>
+      <c r="C6" s="35">
+        <v>255</v>
+      </c>
+      <c r="D6" s="35">
+        <v>255</v>
+      </c>
+      <c r="E6" s="35">
+        <v>252</v>
+      </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
+      <c r="G6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>15</v>
+      </c>
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B7" s="35">
         <v>255</v>
@@ -4854,7 +4930,7 @@
         <v>263</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O7" s="38" t="s">
         <v>15</v>
@@ -4863,7 +4939,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" s="35">
         <v>255</v>
@@ -4897,10 +4973,10 @@
         <v>263</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O8" s="38" t="s">
         <v>15</v>
@@ -4909,7 +4985,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B9" s="35">
         <v>255</v>
@@ -4943,10 +5019,10 @@
         <v>263</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O9" s="38" t="s">
         <v>15</v>
@@ -4955,7 +5031,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B10" s="35">
         <v>255</v>
@@ -4989,19 +5065,18 @@
         <v>263</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B11" s="35">
         <v>255</v>
@@ -5038,7 +5113,7 @@
         <v>266</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>15</v>
@@ -5046,7 +5121,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B12" s="35">
         <v>255</v>
@@ -5083,7 +5158,7 @@
         <v>266</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O12" s="38" t="s">
         <v>15</v>
@@ -5091,7 +5166,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B13" s="35">
         <v>255</v>
@@ -5103,7 +5178,7 @@
         <v>255</v>
       </c>
       <c r="E13" s="35">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="36" t="s">
@@ -5122,21 +5197,21 @@
         <v>263</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>15</v>
+        <v>263</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B14" s="35">
         <v>255</v>
@@ -5167,7 +5242,7 @@
         <v>263</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M14" s="37" t="s">
         <v>263</v>
@@ -5181,7 +5256,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15" s="35">
         <v>255</v>
@@ -5212,7 +5287,7 @@
         <v>263</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>263</v>
@@ -5226,7 +5301,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B16" s="35">
         <v>255</v>
@@ -5257,7 +5332,7 @@
         <v>263</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>263</v>
@@ -5270,112 +5345,85 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="35">
-        <v>255</v>
-      </c>
-      <c r="C17" s="35">
-        <v>255</v>
-      </c>
-      <c r="D17" s="35">
-        <v>255</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="35">
+        <v>255</v>
+      </c>
+      <c r="C18" s="35">
+        <v>255</v>
+      </c>
+      <c r="D18" s="35">
+        <v>240</v>
+      </c>
+      <c r="E18" s="35">
         <v>0</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="35"/>
+      <c r="G18" s="39">
+        <v>1111</v>
+      </c>
+      <c r="H18" s="39">
+        <v>1111</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1111</v>
+      </c>
+      <c r="J18" s="40">
+        <v>1111</v>
+      </c>
+      <c r="K18" s="39">
+        <v>1111</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="35">
-        <v>255</v>
-      </c>
-      <c r="C19" s="35">
-        <v>255</v>
-      </c>
-      <c r="D19" s="35">
-        <v>248</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="G19"/>
+      <c r="H19">
+        <v>255</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19">
+        <v>255</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19">
+        <v>240</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="39">
-        <v>1111</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1111</v>
-      </c>
-      <c r="I19" s="40">
-        <v>1111</v>
-      </c>
-      <c r="J19" s="40">
-        <v>1111</v>
-      </c>
-      <c r="K19" s="39">
-        <v>1111</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G20"/>
@@ -5383,7 +5431,10 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
+      <c r="L20">
+        <f>1+2+4+8</f>
+        <v>15</v>
+      </c>
       <c r="M20"/>
       <c r="N20"/>
     </row>
@@ -5515,12 +5566,646 @@
     <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G1:J1 G19:L19 G5:J5 G2:J2 G3:J3 G4:J4 K5:L5 K1:L1 O1 K2:L2 O2 K3:L3 O3 K4:L4 O4 O5 M1:N5 G7:K7 M7:N7 L7:L13 K8:K13 G8:J17 K14:L17 M8:N9 M10:N12 M13:N13 M14:N17 M19:N19" numberStoredAsText="1"/>
+    <ignoredError sqref="G1:J1 G18:K18 G5:J5 G2:J2 G3:J3 G4:J4 K5:L5 K1:L1 O1 K2:L2 O2 K3:L3 O3 K4:L4 O4 O5 M1:N5 G6:K6 M6:N6 L6:L12 K7:K12 G7:J16 K13:L16 M7:N8 M9:N11 M12:N12 M13:N16 M18:N18" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978DF84B-D0FD-4028-AB0D-1230A51E4075}">
+  <dimension ref="A1:X43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="35">
+        <v>255</v>
+      </c>
+      <c r="C1" s="35">
+        <v>255</v>
+      </c>
+      <c r="D1" s="35">
+        <v>255</v>
+      </c>
+      <c r="E1" s="35">
+        <v>252</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="30"/>
+      <c r="Q1">
+        <v>128</v>
+      </c>
+      <c r="R1">
+        <v>64</v>
+      </c>
+      <c r="S1">
+        <v>32</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
+        <v>4</v>
+      </c>
+      <c r="W1">
+        <v>2</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="35">
+        <v>255</v>
+      </c>
+      <c r="C2" s="35">
+        <v>255</v>
+      </c>
+      <c r="D2" s="35">
+        <v>255</v>
+      </c>
+      <c r="E2" s="35">
+        <v>252</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="35">
+        <v>255</v>
+      </c>
+      <c r="C3" s="35">
+        <v>255</v>
+      </c>
+      <c r="D3" s="35">
+        <v>255</v>
+      </c>
+      <c r="E3" s="35">
+        <v>252</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="35">
+        <v>255</v>
+      </c>
+      <c r="C4" s="35">
+        <v>255</v>
+      </c>
+      <c r="D4" s="35">
+        <v>255</v>
+      </c>
+      <c r="E4" s="35">
+        <v>252</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="35">
+        <v>255</v>
+      </c>
+      <c r="C5" s="35">
+        <v>255</v>
+      </c>
+      <c r="D5" s="35">
+        <v>255</v>
+      </c>
+      <c r="E5" s="35">
+        <v>252</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="35">
+        <v>255</v>
+      </c>
+      <c r="C6" s="35">
+        <v>255</v>
+      </c>
+      <c r="D6" s="35">
+        <v>255</v>
+      </c>
+      <c r="E6" s="35">
+        <v>252</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="35">
+        <v>255</v>
+      </c>
+      <c r="C7" s="35">
+        <v>255</v>
+      </c>
+      <c r="D7" s="35">
+        <v>255</v>
+      </c>
+      <c r="E7" s="35">
+        <v>252</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="35">
+        <v>255</v>
+      </c>
+      <c r="C8" s="35">
+        <v>255</v>
+      </c>
+      <c r="D8" s="35">
+        <v>255</v>
+      </c>
+      <c r="E8" s="35">
+        <v>252</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="35">
+        <v>255</v>
+      </c>
+      <c r="C9" s="35">
+        <v>255</v>
+      </c>
+      <c r="D9" s="35">
+        <v>255</v>
+      </c>
+      <c r="E9" s="35">
+        <v>252</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="35">
+        <v>255</v>
+      </c>
+      <c r="C10" s="35">
+        <v>255</v>
+      </c>
+      <c r="D10" s="35">
+        <v>255</v>
+      </c>
+      <c r="E10" s="35">
+        <v>252</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="41">
+        <v>255</v>
+      </c>
+      <c r="C11" s="41">
+        <v>255</v>
+      </c>
+      <c r="D11" s="41">
+        <v>255</v>
+      </c>
+      <c r="E11" s="41">
+        <v>128</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G1:J9 K1:L10 M1:N10 G10:J10 G11:N11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE9DEA3-50CD-42BB-9CCF-8A0733D1CD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E2E8CA-71C3-495B-B705-5B4206F693CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="479" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40740" yWindow="3675" windowWidth="21600" windowHeight="11385" tabRatio="479" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -4601,7 +4601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67B36FA-8447-4D53-B6B1-94ABC2CA3978}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -5579,7 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978DF84B-D0FD-4028-AB0D-1230A51E4075}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>

--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038DA5C-F371-4DAC-9F85-5A0D762FF03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5878BC-E439-47BC-985F-A5C053054849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="479" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="1080" windowWidth="21600" windowHeight="11385" tabRatio="479" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HO_Summary" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="93">
   <si>
     <t>Mask</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>01001100</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -711,15 +723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9224F4D-09B8-4E36-B686-EB210646D066}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="5" style="7" bestFit="1" customWidth="1"/>
@@ -789,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="1">
-        <f>BIN2DEC(M1+N1)</f>
+        <f t="shared" ref="T1:T22" si="0">BIN2DEC(M1+N1)</f>
         <v>1</v>
       </c>
     </row>
@@ -839,19 +851,19 @@
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="1">
-        <f t="shared" ref="Q2:Q30" si="0">BIN2DEC(G2+H2)</f>
+        <f t="shared" ref="Q2:Q30" si="1">BIN2DEC(G2+H2)</f>
         <v>10</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" ref="R2:R30" si="1">BIN2DEC(I2+J2)</f>
+        <f t="shared" ref="R2:R30" si="2">BIN2DEC(I2+J2)</f>
         <v>7</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S30" si="2">BIN2DEC(K2+L2)</f>
+        <f t="shared" ref="S2:S30" si="3">BIN2DEC(K2+L2)</f>
         <v>10</v>
       </c>
       <c r="T2" s="1">
-        <f>BIN2DEC(M2+N2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -901,19 +913,19 @@
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R3" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S3" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T3" s="1">
-        <f>BIN2DEC(M3+N3)</f>
         <v>3</v>
       </c>
     </row>
@@ -963,19 +975,19 @@
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S4" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T4" s="1">
-        <f>BIN2DEC(M4+N4)</f>
         <v>4</v>
       </c>
     </row>
@@ -1025,19 +1037,19 @@
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <f>BIN2DEC(M5+N5)</f>
         <v>5</v>
       </c>
     </row>
@@ -1087,19 +1099,19 @@
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <f>BIN2DEC(M6+N6)</f>
         <v>0</v>
       </c>
     </row>
@@ -1149,19 +1161,19 @@
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <f>BIN2DEC(M7+N7)</f>
         <v>4</v>
       </c>
     </row>
@@ -1211,19 +1223,19 @@
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <f>BIN2DEC(M8+N8)</f>
         <v>9</v>
       </c>
     </row>
@@ -1273,19 +1285,19 @@
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <f>BIN2DEC(M9+N9)</f>
         <v>12</v>
       </c>
     </row>
@@ -1335,19 +1347,19 @@
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <f>BIN2DEC(M10+N10)</f>
         <v>1</v>
       </c>
     </row>
@@ -1397,19 +1409,19 @@
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <f>BIN2DEC(M11+N11)</f>
         <v>5</v>
       </c>
     </row>
@@ -1459,19 +1471,19 @@
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <f>BIN2DEC(M12+N12)</f>
         <v>9</v>
       </c>
     </row>
@@ -1521,19 +1533,19 @@
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <f>BIN2DEC(M13+N13)</f>
         <v>13</v>
       </c>
     </row>
@@ -1583,19 +1595,19 @@
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <f>BIN2DEC(M14+N14)</f>
         <v>2</v>
       </c>
     </row>
@@ -1645,19 +1657,19 @@
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <f>BIN2DEC(M15+N15)</f>
         <v>6</v>
       </c>
     </row>
@@ -1707,19 +1719,19 @@
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <f>BIN2DEC(M16+N16)</f>
         <v>10</v>
       </c>
     </row>
@@ -1769,19 +1781,19 @@
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <f>BIN2DEC(M17+N17)</f>
         <v>14</v>
       </c>
     </row>
@@ -1831,19 +1843,19 @@
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <f>BIN2DEC(M18+N18)</f>
         <v>3</v>
       </c>
     </row>
@@ -1893,19 +1905,19 @@
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R19" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <f>BIN2DEC(M19+N19)</f>
         <v>7</v>
       </c>
     </row>
@@ -1955,19 +1967,19 @@
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <f>BIN2DEC(M20+N20)</f>
         <v>11</v>
       </c>
     </row>
@@ -2017,19 +2029,19 @@
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <f>BIN2DEC(M21+N21)</f>
         <v>15</v>
       </c>
     </row>
@@ -2079,19 +2091,19 @@
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <f>BIN2DEC(M22+N22)</f>
         <v>4</v>
       </c>
     </row>
@@ -2141,15 +2153,15 @@
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T23" s="1">
@@ -2203,15 +2215,15 @@
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T24" s="1">
@@ -2265,15 +2277,15 @@
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="1">
@@ -2327,15 +2339,15 @@
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
@@ -2389,15 +2401,15 @@
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T27" s="1">
@@ -2451,15 +2463,15 @@
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T28" s="1">
@@ -2513,15 +2525,15 @@
       </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="T29" s="1">
@@ -2575,15 +2587,15 @@
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T30" s="1">
@@ -2595,45 +2607,97 @@
       <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="H31">
+        <v>1010</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33"/>
-      <c r="H33"/>
+      <c r="G32">
+        <v>1111</v>
+      </c>
+      <c r="H32">
+        <v>1111</v>
+      </c>
+      <c r="I32">
+        <v>1111</v>
+      </c>
+      <c r="J32">
+        <v>1111</v>
+      </c>
+      <c r="K32">
+        <v>1111</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G33" s="10">
+        <f>BIN2DEC(G31+H31)</f>
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <f>BIN2DEC(I31+J31)</f>
+        <v>7</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="L33"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="K34">
+        <f>16+32+64+128</f>
+        <v>240</v>
+      </c>
+      <c r="L34">
+        <f>1+2+4+8</f>
+        <v>15</v>
+      </c>
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -2643,7 +2707,7 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -2653,7 +2717,7 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -2663,7 +2727,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -2673,7 +2737,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -2683,7 +2747,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -2693,7 +2757,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
@@ -2704,6 +2768,7 @@
       <c r="N41"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="G27:N30 G1:N21 G23:L26 M24:N24 M25:N26 M23:N23 G22:M22 N22" numberStoredAsText="1"/>

--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D83C992-4F61-44D6-9CC4-EC080BFDD575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381ABEE-FA81-461E-AD9E-529D9A801BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18795" yWindow="1530" windowWidth="21600" windowHeight="11385" tabRatio="479" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1215" windowWidth="29040" windowHeight="15840" tabRatio="479" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9224F4D-09B8-4E36-B686-EB210646D066}">
   <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,11 +1225,11 @@
         <v>00000111</v>
       </c>
       <c r="J2" s="17" t="str">
-        <f>DEC2BIN(E2,8)</f>
+        <f t="shared" ref="J2:J10" si="3">DEC2BIN(E2,8)</f>
         <v>00001010</v>
       </c>
       <c r="K2" s="17" t="str">
-        <f>DEC2BIN(F2,8)</f>
+        <f t="shared" ref="K2:K10" si="4">DEC2BIN(F2,8)</f>
         <v>00000010</v>
       </c>
       <c r="L2" s="27"/>
@@ -1276,15 +1276,15 @@
       </c>
       <c r="AB2" s="18"/>
       <c r="AC2" s="23">
-        <f t="shared" ref="AC2:AC33" si="3">BIN2DEC(T2+U2)</f>
+        <f t="shared" ref="AC2:AC33" si="5">BIN2DEC(T2+U2)</f>
         <v>10</v>
       </c>
       <c r="AD2" s="23">
-        <f t="shared" ref="AD2:AD33" si="4">BIN2DEC(V2+W2)</f>
+        <f t="shared" ref="AD2:AD33" si="6">BIN2DEC(V2+W2)</f>
         <v>7</v>
       </c>
       <c r="AE2" s="23">
-        <f t="shared" ref="AE2:AE33" si="5">BIN2DEC(X2+Y2)</f>
+        <f t="shared" ref="AE2:AE33" si="7">BIN2DEC(X2+Y2)</f>
         <v>10</v>
       </c>
       <c r="AF2" s="23">
@@ -1319,11 +1319,11 @@
         <v>00000111</v>
       </c>
       <c r="J3" s="17" t="str">
-        <f>DEC2BIN(E3,8)</f>
+        <f t="shared" si="3"/>
         <v>00001010</v>
       </c>
       <c r="K3" s="17" t="str">
-        <f>DEC2BIN(F3,8)</f>
+        <f t="shared" si="4"/>
         <v>00000011</v>
       </c>
       <c r="L3" s="27"/>
@@ -1370,15 +1370,15 @@
       </c>
       <c r="AB3" s="18"/>
       <c r="AC3" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD3" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE3" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AF3" s="23">
@@ -1413,11 +1413,11 @@
         <v>00000111</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>DEC2BIN(E4,8)</f>
+        <f t="shared" si="3"/>
         <v>00001010</v>
       </c>
       <c r="K4" s="17" t="str">
-        <f>DEC2BIN(F4,8)</f>
+        <f t="shared" si="4"/>
         <v>00000100</v>
       </c>
       <c r="L4" s="27"/>
@@ -1464,15 +1464,15 @@
       </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD4" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE4" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AF4" s="23">
@@ -1507,11 +1507,11 @@
         <v>00000111</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>DEC2BIN(E5,8)</f>
+        <f t="shared" si="3"/>
         <v>00001010</v>
       </c>
       <c r="K5" s="17" t="str">
-        <f>DEC2BIN(F5,8)</f>
+        <f t="shared" si="4"/>
         <v>00000101</v>
       </c>
       <c r="L5" s="27"/>
@@ -1558,15 +1558,15 @@
       </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD5" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE5" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AF5" s="23">
@@ -1601,11 +1601,11 @@
         <v>00000111</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>DEC2BIN(E6,8)</f>
+        <f t="shared" si="3"/>
         <v>00001010</v>
       </c>
       <c r="K6" s="17" t="str">
-        <f>DEC2BIN(F6,8)</f>
+        <f t="shared" si="4"/>
         <v>00000110</v>
       </c>
       <c r="L6" s="27"/>
@@ -1652,15 +1652,15 @@
       </c>
       <c r="AB6" s="18"/>
       <c r="AC6" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD6" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE6" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AF6" s="23">
@@ -1695,11 +1695,11 @@
         <v>00000111</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>DEC2BIN(E7,8)</f>
+        <f t="shared" si="3"/>
         <v>00001010</v>
       </c>
       <c r="K7" s="17" t="str">
-        <f>DEC2BIN(F7,8)</f>
+        <f t="shared" si="4"/>
         <v>00000111</v>
       </c>
       <c r="L7" s="27"/>
@@ -1746,15 +1746,15 @@
       </c>
       <c r="AB7" s="18"/>
       <c r="AC7" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD7" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE7" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AF7" s="23">
@@ -1789,11 +1789,11 @@
         <v>00000111</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>DEC2BIN(E8,8)</f>
+        <f t="shared" si="3"/>
         <v>00001010</v>
       </c>
       <c r="K8" s="17" t="str">
-        <f>DEC2BIN(F8,8)</f>
+        <f t="shared" si="4"/>
         <v>00001000</v>
       </c>
       <c r="L8" s="27"/>
@@ -1840,15 +1840,15 @@
       </c>
       <c r="AB8" s="18"/>
       <c r="AC8" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD8" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE8" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AF8" s="23">
@@ -1883,11 +1883,11 @@
         <v>00000111</v>
       </c>
       <c r="J9" s="19" t="str">
-        <f>DEC2BIN(E9,8)</f>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="K9" s="19" t="str">
-        <f>DEC2BIN(F9,8)</f>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="L9" s="27"/>
@@ -1934,15 +1934,15 @@
       </c>
       <c r="AB9" s="20"/>
       <c r="AC9" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD9" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF9" s="24">
@@ -1977,11 +1977,11 @@
         <v>00000111</v>
       </c>
       <c r="J10" s="19" t="str">
-        <f>DEC2BIN(E10,8)</f>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="K10" s="19" t="str">
-        <f>DEC2BIN(F10,8)</f>
+        <f t="shared" si="4"/>
         <v>00000100</v>
       </c>
       <c r="L10" s="27"/>
@@ -2028,15 +2028,15 @@
       </c>
       <c r="AB10" s="20"/>
       <c r="AC10" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD10" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE10" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF10" s="24">
@@ -2071,11 +2071,11 @@
         <v>00000111</v>
       </c>
       <c r="J11" s="19" t="str">
-        <f t="shared" ref="J11:J33" si="6">DEC2BIN(E11,8)</f>
+        <f t="shared" ref="J11:J33" si="8">DEC2BIN(E11,8)</f>
         <v>00000000</v>
       </c>
       <c r="K11" s="19" t="str">
-        <f>DEC2BIN(F11,8)</f>
+        <f t="shared" ref="K11:K33" si="9">DEC2BIN(F11,8)</f>
         <v>00001000</v>
       </c>
       <c r="L11" s="27"/>
@@ -2122,15 +2122,15 @@
       </c>
       <c r="AB11" s="20"/>
       <c r="AC11" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD11" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE11" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF11" s="24">
@@ -2165,11 +2165,11 @@
         <v>00000111</v>
       </c>
       <c r="J12" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K12" s="19" t="str">
-        <f>DEC2BIN(F12,8)</f>
+        <f t="shared" si="9"/>
         <v>00001100</v>
       </c>
       <c r="L12" s="27"/>
@@ -2216,15 +2216,15 @@
       </c>
       <c r="AB12" s="20"/>
       <c r="AC12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD12" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE12" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF12" s="24">
@@ -2259,11 +2259,11 @@
         <v>00000111</v>
       </c>
       <c r="J13" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K13" s="19" t="str">
-        <f>DEC2BIN(F13,8)</f>
+        <f t="shared" si="9"/>
         <v>00010000</v>
       </c>
       <c r="L13" s="27"/>
@@ -2310,15 +2310,15 @@
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD13" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE13" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF13" s="24">
@@ -2353,11 +2353,11 @@
         <v>00000111</v>
       </c>
       <c r="J14" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K14" s="19" t="str">
-        <f>DEC2BIN(F14,8)</f>
+        <f t="shared" si="9"/>
         <v>00010100</v>
       </c>
       <c r="L14" s="27"/>
@@ -2404,15 +2404,15 @@
       </c>
       <c r="AB14" s="20"/>
       <c r="AC14" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD14" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE14" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF14" s="24">
@@ -2447,11 +2447,11 @@
         <v>00000111</v>
       </c>
       <c r="J15" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K15" s="19" t="str">
-        <f>DEC2BIN(F15,8)</f>
+        <f t="shared" si="9"/>
         <v>00011000</v>
       </c>
       <c r="L15" s="27"/>
@@ -2498,15 +2498,15 @@
       </c>
       <c r="AB15" s="20"/>
       <c r="AC15" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD15" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE15" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF15" s="24">
@@ -2541,11 +2541,11 @@
         <v>00000111</v>
       </c>
       <c r="J16" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K16" s="19" t="str">
-        <f>DEC2BIN(F16,8)</f>
+        <f t="shared" si="9"/>
         <v>00011100</v>
       </c>
       <c r="L16" s="27"/>
@@ -2592,15 +2592,15 @@
       </c>
       <c r="AB16" s="20"/>
       <c r="AC16" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD16" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE16" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF16" s="24">
@@ -2635,11 +2635,11 @@
         <v>00000111</v>
       </c>
       <c r="J17" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K17" s="19" t="str">
-        <f>DEC2BIN(F17,8)</f>
+        <f t="shared" si="9"/>
         <v>00100000</v>
       </c>
       <c r="L17" s="27"/>
@@ -2686,15 +2686,15 @@
       </c>
       <c r="AB17" s="20"/>
       <c r="AC17" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD17" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE17" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF17" s="24">
@@ -2729,11 +2729,11 @@
         <v>00000111</v>
       </c>
       <c r="J18" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K18" s="19" t="str">
-        <f>DEC2BIN(F18,8)</f>
+        <f t="shared" si="9"/>
         <v>00100100</v>
       </c>
       <c r="L18" s="27"/>
@@ -2780,15 +2780,15 @@
       </c>
       <c r="AB18" s="20"/>
       <c r="AC18" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD18" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE18" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF18" s="24">
@@ -2823,11 +2823,11 @@
         <v>00000111</v>
       </c>
       <c r="J19" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K19" s="19" t="str">
-        <f>DEC2BIN(F19,8)</f>
+        <f t="shared" si="9"/>
         <v>00101000</v>
       </c>
       <c r="L19" s="27"/>
@@ -2874,15 +2874,15 @@
       </c>
       <c r="AB19" s="20"/>
       <c r="AC19" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD19" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE19" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF19" s="24">
@@ -2917,11 +2917,11 @@
         <v>00000111</v>
       </c>
       <c r="J20" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K20" s="19" t="str">
-        <f>DEC2BIN(F20,8)</f>
+        <f t="shared" si="9"/>
         <v>00101100</v>
       </c>
       <c r="L20" s="27"/>
@@ -2968,15 +2968,15 @@
       </c>
       <c r="AB20" s="20"/>
       <c r="AC20" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD20" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE20" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF20" s="24">
@@ -3011,11 +3011,11 @@
         <v>00000111</v>
       </c>
       <c r="J21" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K21" s="19" t="str">
-        <f>DEC2BIN(F21,8)</f>
+        <f t="shared" si="9"/>
         <v>00110000</v>
       </c>
       <c r="L21" s="27"/>
@@ -3062,15 +3062,15 @@
       </c>
       <c r="AB21" s="20"/>
       <c r="AC21" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD21" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE21" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF21" s="24">
@@ -3105,11 +3105,11 @@
         <v>00000111</v>
       </c>
       <c r="J22" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K22" s="19" t="str">
-        <f>DEC2BIN(F22,8)</f>
+        <f t="shared" si="9"/>
         <v>00110100</v>
       </c>
       <c r="L22" s="27"/>
@@ -3156,15 +3156,15 @@
       </c>
       <c r="AB22" s="20"/>
       <c r="AC22" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD22" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE22" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF22" s="24">
@@ -3199,11 +3199,11 @@
         <v>00000111</v>
       </c>
       <c r="J23" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K23" s="19" t="str">
-        <f>DEC2BIN(F23,8)</f>
+        <f t="shared" si="9"/>
         <v>00111000</v>
       </c>
       <c r="L23" s="27"/>
@@ -3250,15 +3250,15 @@
       </c>
       <c r="AB23" s="20"/>
       <c r="AC23" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD23" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE23" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF23" s="24">
@@ -3293,11 +3293,11 @@
         <v>00000111</v>
       </c>
       <c r="J24" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K24" s="19" t="str">
-        <f>DEC2BIN(F24,8)</f>
+        <f t="shared" si="9"/>
         <v>00111100</v>
       </c>
       <c r="L24" s="27"/>
@@ -3344,15 +3344,15 @@
       </c>
       <c r="AB24" s="20"/>
       <c r="AC24" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD24" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE24" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF24" s="24">
@@ -3387,11 +3387,11 @@
         <v>00000111</v>
       </c>
       <c r="J25" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K25" s="19" t="str">
-        <f>DEC2BIN(F25,8)</f>
+        <f t="shared" si="9"/>
         <v>01000000</v>
       </c>
       <c r="L25" s="27"/>
@@ -3438,15 +3438,15 @@
       </c>
       <c r="AB25" s="20"/>
       <c r="AC25" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD25" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE25" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF25" s="24">
@@ -3481,11 +3481,11 @@
         <v>00000111</v>
       </c>
       <c r="J26" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K26" s="19" t="str">
-        <f>DEC2BIN(F26,8)</f>
+        <f t="shared" si="9"/>
         <v>01000100</v>
       </c>
       <c r="L26" s="27"/>
@@ -3532,15 +3532,15 @@
       </c>
       <c r="AB26" s="20"/>
       <c r="AC26" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD26" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE26" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF26" s="24">
@@ -3575,11 +3575,11 @@
         <v>00000111</v>
       </c>
       <c r="J27" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K27" s="19" t="str">
-        <f>DEC2BIN(F27,8)</f>
+        <f t="shared" si="9"/>
         <v>01001000</v>
       </c>
       <c r="L27" s="27"/>
@@ -3626,15 +3626,15 @@
       </c>
       <c r="AB27" s="20"/>
       <c r="AC27" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD27" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE27" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF27" s="24">
@@ -3669,11 +3669,11 @@
         <v>00000111</v>
       </c>
       <c r="J28" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K28" s="19" t="str">
-        <f>DEC2BIN(F28,8)</f>
+        <f t="shared" si="9"/>
         <v>01001100</v>
       </c>
       <c r="L28" s="27"/>
@@ -3720,15 +3720,15 @@
       </c>
       <c r="AB28" s="20"/>
       <c r="AC28" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD28" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE28" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF28" s="24">
@@ -3763,11 +3763,11 @@
         <v>00000111</v>
       </c>
       <c r="J29" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000000</v>
       </c>
       <c r="K29" s="19" t="str">
-        <f>DEC2BIN(F29,8)</f>
+        <f t="shared" si="9"/>
         <v>01010000</v>
       </c>
       <c r="L29" s="27"/>
@@ -3814,15 +3814,15 @@
       </c>
       <c r="AB29" s="20"/>
       <c r="AC29" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD29" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE29" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF29" s="24">
@@ -3857,11 +3857,11 @@
         <v>00000111</v>
       </c>
       <c r="J30" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000001</v>
       </c>
       <c r="K30" s="21" t="str">
-        <f>DEC2BIN(F30,8)</f>
+        <f t="shared" si="9"/>
         <v>00000000</v>
       </c>
       <c r="L30" s="27"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="AB30" s="21"/>
       <c r="AC30" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD30" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE30" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF30" s="25">
@@ -3951,11 +3951,11 @@
         <v>00000111</v>
       </c>
       <c r="J31" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000010</v>
       </c>
       <c r="K31" s="21" t="str">
-        <f>DEC2BIN(F31,8)</f>
+        <f t="shared" si="9"/>
         <v>00000000</v>
       </c>
       <c r="L31" s="27"/>
@@ -4002,15 +4002,15 @@
       </c>
       <c r="AB31" s="21"/>
       <c r="AC31" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD31" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE31" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AF31" s="25">
@@ -4045,11 +4045,11 @@
         <v>00000111</v>
       </c>
       <c r="J32" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000011</v>
       </c>
       <c r="K32" s="21" t="str">
-        <f>DEC2BIN(F32,8)</f>
+        <f t="shared" si="9"/>
         <v>00000000</v>
       </c>
       <c r="L32" s="27"/>
@@ -4096,15 +4096,15 @@
       </c>
       <c r="AB32" s="21"/>
       <c r="AC32" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD32" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE32" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AF32" s="25">
@@ -4139,11 +4139,11 @@
         <v>00000111</v>
       </c>
       <c r="J33" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>00000100</v>
       </c>
       <c r="K33" s="21" t="str">
-        <f>DEC2BIN(F33,8)</f>
+        <f t="shared" si="9"/>
         <v>00000000</v>
       </c>
       <c r="L33" s="28"/>
@@ -4190,15 +4190,15 @@
       </c>
       <c r="AB33" s="21"/>
       <c r="AC33" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AD33" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE33" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AF33" s="25">

--- a/Assignment_2/Documentation/device_ports.xlsx
+++ b/Assignment_2/Documentation/device_ports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ant\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leggtc1\Desktop\2022-Advanced-Networking-Assignments\Assignment_2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135D134-A3B9-47C0-82CD-F76B1E01EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F71188-1EFF-4A13-B031-CF34E33FD87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38385" yWindow="1320" windowWidth="28830" windowHeight="15630" xr2:uid="{9D31439D-E890-4418-B9EB-88036D9BEC8C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D31439D-E890-4418-B9EB-88036D9BEC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="HO_Summary" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="186">
   <si>
     <t>Mask</t>
   </si>
@@ -291,21 +290,6 @@
     <t>10.7.0.0/20</t>
   </si>
   <si>
-    <t>10.7.10.1</t>
-  </si>
-  <si>
-    <t>10.7.10.2</t>
-  </si>
-  <si>
-    <t>10.7.10.4</t>
-  </si>
-  <si>
-    <t>10.7.10.3</t>
-  </si>
-  <si>
-    <t>10.7.10.5</t>
-  </si>
-  <si>
     <t>10.7.0.4</t>
   </si>
   <si>
@@ -577,13 +561,49 @@
   </si>
   <si>
     <t>IP Address</t>
+  </si>
+  <si>
+    <t>10.7.0.250</t>
+  </si>
+  <si>
+    <t>172.16.17.0</t>
+  </si>
+  <si>
+    <t>172.16.17.4</t>
+  </si>
+  <si>
+    <t>10.7.0.88</t>
+  </si>
+  <si>
+    <t>10.7.0.92</t>
+  </si>
+  <si>
+    <t>10.7.0.84</t>
+  </si>
+  <si>
+    <t>10.7.10.249</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>Area 51</t>
+  </si>
+  <si>
+    <t>Provider Edge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +641,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Abadi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -674,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -780,11 +806,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,6 +905,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,18 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,13 +936,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,21 +1250,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9224F4D-09B8-4E36-B686-EB210646D066}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.85546875" customWidth="1"/>
@@ -1160,15 +1276,15 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -1177,26 +1293,28 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>184</v>
+      </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="33" t="s">
-        <v>83</v>
+      <c r="E2" s="25" t="s">
+        <v>102</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="36">
+      <c r="G2" s="28">
         <v>10</v>
       </c>
       <c r="H2" s="17">
         <v>7</v>
       </c>
       <c r="I2" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="17">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17" t="str">
@@ -1209,99 +1327,123 @@
       </c>
       <c r="N2" s="17" t="str">
         <f>DEC2BIN(I2,8)</f>
-        <v>00001010</v>
+        <v>00000000</v>
       </c>
       <c r="O2" s="17" t="str">
         <f>DEC2BIN(J2,8)</f>
-        <v>00000001</v>
-      </c>
-      <c r="P2" s="22"/>
+        <v>01010001</v>
+      </c>
+      <c r="P2" s="31"/>
       <c r="Q2" s="18" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="28">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17">
+        <v>7</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>82</v>
+      </c>
       <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="18"/>
+      <c r="L3" s="17" t="str">
+        <f t="shared" ref="L3:L9" si="0">DEC2BIN(G3,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="M3" s="17" t="str">
+        <f t="shared" ref="M3:M9" si="1">DEC2BIN(H3,8)</f>
+        <v>00000111</v>
+      </c>
+      <c r="N3" s="17" t="str">
+        <f t="shared" ref="N3:N9" si="2">DEC2BIN(I3,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="O3" s="17" t="str">
+        <f t="shared" ref="O3:O9" si="3">DEC2BIN(J3,8)</f>
+        <v>01010010</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="33" t="s">
-        <v>84</v>
+      <c r="E4" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="36">
+      <c r="G4" s="28">
         <v>10</v>
       </c>
       <c r="H4" s="17">
         <v>7</v>
       </c>
       <c r="I4" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" s="17">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17" t="str">
-        <f t="shared" ref="L4:L47" si="0">DEC2BIN(G4,8)</f>
+        <f t="shared" si="0"/>
         <v>00001010</v>
       </c>
       <c r="M4" s="17" t="str">
-        <f t="shared" ref="M4:M47" si="1">DEC2BIN(H4,8)</f>
+        <f t="shared" si="1"/>
         <v>00000111</v>
       </c>
       <c r="N4" s="17" t="str">
-        <f t="shared" ref="N4:N15" si="2">DEC2BIN(I4,8)</f>
-        <v>00001010</v>
+        <f t="shared" si="2"/>
+        <v>00000000</v>
       </c>
       <c r="O4" s="17" t="str">
-        <f t="shared" ref="O4:O15" si="3">DEC2BIN(J4,8)</f>
-        <v>00000010</v>
-      </c>
-      <c r="P4" s="23"/>
+        <f t="shared" si="3"/>
+        <v>01011001</v>
+      </c>
+      <c r="P4" s="32"/>
       <c r="Q4" s="18" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="33" t="s">
-        <v>86</v>
+      <c r="E5" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="F5" s="17"/>
-      <c r="G5" s="36">
+      <c r="G5" s="28">
         <v>10</v>
       </c>
       <c r="H5" s="17">
         <v>7</v>
       </c>
       <c r="I5" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5" s="17">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="str">
@@ -1314,37 +1456,37 @@
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00001010</v>
+        <v>00000000</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>00000011</v>
-      </c>
-      <c r="P5" s="23"/>
+        <v>01011010</v>
+      </c>
+      <c r="P5" s="32"/>
       <c r="Q5" s="18" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="33" t="s">
-        <v>85</v>
+      <c r="E6" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="36">
+      <c r="G6" s="28">
         <v>10</v>
       </c>
       <c r="H6" s="17">
         <v>7</v>
       </c>
       <c r="I6" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="17">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="str">
@@ -1357,37 +1499,37 @@
       </c>
       <c r="N6" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00001010</v>
+        <v>00000000</v>
       </c>
       <c r="O6" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>00000100</v>
-      </c>
-      <c r="P6" s="23"/>
+        <v>01011101</v>
+      </c>
+      <c r="P6" s="32"/>
       <c r="Q6" s="18" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="33" t="s">
-        <v>87</v>
+      <c r="E7" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="36">
+      <c r="G7" s="28">
         <v>10</v>
       </c>
       <c r="H7" s="17">
         <v>7</v>
       </c>
       <c r="I7" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="17">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="str">
@@ -1400,366 +1542,444 @@
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>00001010</v>
+        <v>00000000</v>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>00000101</v>
-      </c>
-      <c r="P7" s="23"/>
+        <v>01011110</v>
+      </c>
+      <c r="P7" s="32"/>
       <c r="Q7" s="18" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="33"/>
+      <c r="E8" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="G8" s="28">
+        <v>10</v>
+      </c>
+      <c r="H8" s="17">
+        <v>7</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>77</v>
+      </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="18"/>
+      <c r="L8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>00001010</v>
+      </c>
+      <c r="M8" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00000111</v>
+      </c>
+      <c r="N8" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="O8" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>01001101</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="28">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
+        <v>7</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>78</v>
+      </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="18"/>
+      <c r="L9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>00001010</v>
+      </c>
+      <c r="M9" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00000111</v>
+      </c>
+      <c r="N9" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>00000000</v>
+      </c>
+      <c r="O9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>01001110</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="25" t="s">
+        <v>179</v>
+      </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="G10" s="28">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17">
+        <v>7</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>85</v>
+      </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="18"/>
+      <c r="L10" s="17" t="str">
+        <f t="shared" ref="L10:L12" si="4">DEC2BIN(G10,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="M10" s="17" t="str">
+        <f t="shared" ref="M10:M12" si="5">DEC2BIN(H10,8)</f>
+        <v>00000111</v>
+      </c>
+      <c r="N10" s="17" t="str">
+        <f t="shared" ref="N10:N12" si="6">DEC2BIN(I10,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="O10" s="17" t="str">
+        <f t="shared" ref="O10:O12" si="7">DEC2BIN(J10,8)</f>
+        <v>01010101</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="33"/>
+      <c r="E11" s="25" t="s">
+        <v>179</v>
+      </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="G11" s="28">
+        <v>10</v>
+      </c>
+      <c r="H11" s="17">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>86</v>
+      </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="18"/>
+      <c r="L11" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>00001010</v>
+      </c>
+      <c r="M11" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>00000111</v>
+      </c>
+      <c r="N11" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>00000000</v>
+      </c>
+      <c r="O11" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>01010110</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="25" t="s">
+        <v>174</v>
+      </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="28">
+        <v>10</v>
+      </c>
+      <c r="H12" s="17">
+        <v>7</v>
+      </c>
+      <c r="I12" s="17">
+        <v>10</v>
+      </c>
+      <c r="J12" s="17">
+        <v>250</v>
+      </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="18"/>
+      <c r="L12" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>00001010</v>
+      </c>
+      <c r="M12" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>00000111</v>
+      </c>
+      <c r="N12" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>00001010</v>
+      </c>
+      <c r="O12" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>11111010</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="18" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="37">
+      <c r="A13" s="40"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="28">
         <v>10</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>7</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
+        <v>10</v>
+      </c>
+      <c r="J13" s="17">
+        <v>249</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="str">
+        <f t="shared" ref="L13" si="8">DEC2BIN(G13,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="M13" s="17" t="str">
+        <f t="shared" ref="M13" si="9">DEC2BIN(H13,8)</f>
+        <v>00000111</v>
+      </c>
+      <c r="N13" s="17" t="str">
+        <f t="shared" ref="N13" si="10">DEC2BIN(I13,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="O13" s="17" t="str">
+        <f t="shared" ref="O13" si="11">DEC2BIN(J13,8)</f>
+        <v>11111001</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17">
+        <v>11111111</v>
+      </c>
+      <c r="M14" s="17">
+        <v>11111111</v>
+      </c>
+      <c r="N14" s="17">
+        <v>11110000</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="28">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17">
+        <v>7</v>
+      </c>
+      <c r="I15" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
+        <v>255</v>
+      </c>
+      <c r="M15" s="17">
+        <v>255</v>
+      </c>
+      <c r="N15" s="17">
+        <v>240</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="30">
+        <v>172</v>
+      </c>
+      <c r="H17" s="21">
+        <v>16</v>
+      </c>
+      <c r="I17" s="21">
+        <v>17</v>
+      </c>
+      <c r="J17" s="21">
         <v>1</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>00001010</v>
-      </c>
-      <c r="M13" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000111</v>
-      </c>
-      <c r="N13" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="O13" s="19" t="str">
-        <f>DEC2BIN(J13,8)</f>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21" t="str">
+        <f t="shared" ref="L17:L18" si="12">DEC2BIN(G17,8)</f>
+        <v>10101100</v>
+      </c>
+      <c r="M17" s="21" t="str">
+        <f t="shared" ref="M17:M18" si="13">DEC2BIN(H17,8)</f>
+        <v>00010000</v>
+      </c>
+      <c r="N17" s="21" t="str">
+        <f t="shared" ref="N17:N18" si="14">DEC2BIN(I17,8)</f>
+        <v>00010001</v>
+      </c>
+      <c r="O17" s="21" t="str">
+        <f t="shared" ref="O17:O18" si="15">DEC2BIN(J17,8)</f>
         <v>00000001</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="37">
-        <v>10</v>
-      </c>
-      <c r="H14" s="19">
-        <v>7</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>2</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="str">
-        <f t="shared" ref="L14" si="4">DEC2BIN(G14,8)</f>
-        <v>00001010</v>
-      </c>
-      <c r="M14" s="19" t="str">
-        <f t="shared" ref="M14" si="5">DEC2BIN(H14,8)</f>
-        <v>00000111</v>
-      </c>
-      <c r="N14" s="19" t="str">
-        <f t="shared" ref="N14" si="6">DEC2BIN(I14,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="O14" s="19" t="str">
-        <f>DEC2BIN(J14,8)</f>
-        <v>00000010</v>
-      </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="37">
-        <v>10</v>
-      </c>
-      <c r="H15" s="19">
-        <v>7</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="30">
+        <v>172</v>
+      </c>
+      <c r="H18" s="21">
+        <v>16</v>
+      </c>
+      <c r="I18" s="21">
+        <v>17</v>
+      </c>
+      <c r="J18" s="21">
         <v>5</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>00001010</v>
-      </c>
-      <c r="M15" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000111</v>
-      </c>
-      <c r="N15" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>00000000</v>
-      </c>
-      <c r="O15" s="19" t="str">
-        <f t="shared" si="3"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>10101100</v>
+      </c>
+      <c r="M18" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>00010000</v>
+      </c>
+      <c r="N18" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>00010001</v>
+      </c>
+      <c r="O18" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>00000101</v>
       </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="37">
-        <v>10</v>
-      </c>
-      <c r="H16" s="19">
-        <v>7</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>6</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="str">
-        <f t="shared" ref="L16:L17" si="7">DEC2BIN(G16,8)</f>
-        <v>00001010</v>
-      </c>
-      <c r="M16" s="19" t="str">
-        <f t="shared" ref="M16:M17" si="8">DEC2BIN(H16,8)</f>
-        <v>00000111</v>
-      </c>
-      <c r="N16" s="19" t="str">
-        <f t="shared" ref="N16:N17" si="9">DEC2BIN(I16,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="O16" s="19" t="str">
-        <f t="shared" ref="O16:O17" si="10">DEC2BIN(J16,8)</f>
-        <v>00000110</v>
-      </c>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="37">
-        <v>10</v>
-      </c>
-      <c r="H17" s="19">
-        <v>7</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <v>9</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>00001010</v>
-      </c>
-      <c r="M17" s="19" t="str">
-        <f t="shared" si="8"/>
-        <v>00000111</v>
-      </c>
-      <c r="N17" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>00000000</v>
-      </c>
-      <c r="O17" s="19" t="str">
-        <f t="shared" si="10"/>
-        <v>00001001</v>
-      </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="37">
-        <v>10</v>
-      </c>
-      <c r="H18" s="19">
-        <v>7</v>
-      </c>
-      <c r="I18" s="19">
-        <v>0</v>
-      </c>
-      <c r="J18" s="19">
-        <v>10</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>00001010</v>
-      </c>
-      <c r="M18" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000111</v>
-      </c>
-      <c r="N18" s="19" t="str">
-        <f t="shared" ref="N18:N47" si="11">DEC2BIN(I18,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="O18" s="19" t="str">
-        <f t="shared" ref="O18:O47" si="12">DEC2BIN(J18,8)</f>
-        <v>00001010</v>
-      </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="20" t="s">
-        <v>4</v>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="21">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1767,11 +1987,11 @@
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="34" t="s">
-        <v>90</v>
+      <c r="E19" s="26" t="s">
+        <v>3</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="37">
+      <c r="G19" s="29">
         <v>10</v>
       </c>
       <c r="H19" s="19">
@@ -1781,26 +2001,26 @@
         <v>0</v>
       </c>
       <c r="J19" s="19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19" t="str">
-        <f t="shared" ref="L19" si="13">DEC2BIN(G19,8)</f>
+        <f t="shared" ref="L19:L53" si="16">DEC2BIN(G19,8)</f>
         <v>00001010</v>
       </c>
       <c r="M19" s="19" t="str">
-        <f t="shared" ref="M19" si="14">DEC2BIN(H19,8)</f>
+        <f t="shared" ref="M19:M53" si="17">DEC2BIN(H19,8)</f>
         <v>00000111</v>
       </c>
       <c r="N19" s="19" t="str">
-        <f t="shared" ref="N19" si="15">DEC2BIN(I19,8)</f>
+        <f t="shared" ref="N19:N21" si="18">DEC2BIN(I19,8)</f>
         <v>00000000</v>
       </c>
       <c r="O19" s="19" t="str">
-        <f t="shared" ref="O19" si="16">DEC2BIN(J19,8)</f>
-        <v>00001101</v>
-      </c>
-      <c r="P19" s="23"/>
+        <f>DEC2BIN(J19,8)</f>
+        <v>00000001</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="Q19" s="20" t="s">
         <v>4</v>
       </c>
@@ -1810,11 +2030,11 @@
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="34" t="s">
-        <v>90</v>
+      <c r="E20" s="26" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="37">
+      <c r="G20" s="29">
         <v>10</v>
       </c>
       <c r="H20" s="19">
@@ -1824,40 +2044,38 @@
         <v>0</v>
       </c>
       <c r="J20" s="19">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L20" si="19">DEC2BIN(G20,8)</f>
         <v>00001010</v>
       </c>
       <c r="M20" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M20" si="20">DEC2BIN(H20,8)</f>
         <v>00000111</v>
       </c>
       <c r="N20" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N20" si="21">DEC2BIN(I20,8)</f>
         <v>00000000</v>
       </c>
       <c r="O20" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00001110</v>
-      </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="20" t="s">
-        <v>4</v>
-      </c>
+        <f>DEC2BIN(J20,8)</f>
+        <v>00000010</v>
+      </c>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="34" t="s">
-        <v>91</v>
+      <c r="E21" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="37">
+      <c r="G21" s="29">
         <v>10</v>
       </c>
       <c r="H21" s="19">
@@ -1867,26 +2085,26 @@
         <v>0</v>
       </c>
       <c r="J21" s="19">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M21" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N21" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>00000000</v>
       </c>
       <c r="O21" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00010000</v>
-      </c>
-      <c r="P21" s="23"/>
+        <f t="shared" ref="O21" si="22">DEC2BIN(J21,8)</f>
+        <v>00000101</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="Q21" s="20" t="s">
         <v>4</v>
       </c>
@@ -1896,30 +2114,54 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="G22" s="29">
+        <v>10</v>
+      </c>
+      <c r="H22" s="19">
+        <v>7</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>6</v>
+      </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="20"/>
+      <c r="L22" s="19" t="str">
+        <f t="shared" ref="L22:L23" si="23">DEC2BIN(G22,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="M22" s="19" t="str">
+        <f t="shared" ref="M22:M23" si="24">DEC2BIN(H22,8)</f>
+        <v>00000111</v>
+      </c>
+      <c r="N22" s="19" t="str">
+        <f t="shared" ref="N22:N23" si="25">DEC2BIN(I22,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="O22" s="19" t="str">
+        <f t="shared" ref="O22:O23" si="26">DEC2BIN(J22,8)</f>
+        <v>00000110</v>
+      </c>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="34" t="s">
-        <v>92</v>
+      <c r="E23" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="37">
+      <c r="G23" s="29">
         <v>10</v>
       </c>
       <c r="H23" s="19">
@@ -1929,26 +2171,26 @@
         <v>0</v>
       </c>
       <c r="J23" s="19">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>00001010</v>
       </c>
       <c r="M23" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="24"/>
         <v>00000111</v>
       </c>
       <c r="N23" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>00000000</v>
       </c>
       <c r="O23" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00010100</v>
-      </c>
-      <c r="P23" s="23"/>
+        <f t="shared" si="26"/>
+        <v>00001001</v>
+      </c>
+      <c r="P23" s="32"/>
       <c r="Q23" s="20" t="s">
         <v>4</v>
       </c>
@@ -1958,30 +2200,54 @@
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="G24" s="29">
+        <v>10</v>
+      </c>
+      <c r="H24" s="19">
+        <v>7</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>10</v>
+      </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="20"/>
+      <c r="L24" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M24" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N24" s="19" t="str">
+        <f t="shared" ref="N24:N53" si="27">DEC2BIN(I24,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="O24" s="19" t="str">
+        <f t="shared" ref="O24:O53" si="28">DEC2BIN(J24,8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="34" t="s">
-        <v>93</v>
+      <c r="E25" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="37">
+      <c r="G25" s="29">
         <v>10</v>
       </c>
       <c r="H25" s="19">
@@ -1991,26 +2257,26 @@
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L25" si="29">DEC2BIN(G25,8)</f>
         <v>00001010</v>
       </c>
       <c r="M25" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M25" si="30">DEC2BIN(H25,8)</f>
         <v>00000111</v>
       </c>
       <c r="N25" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N25" si="31">DEC2BIN(I25,8)</f>
         <v>00000000</v>
       </c>
       <c r="O25" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00011000</v>
-      </c>
-      <c r="P25" s="23"/>
+        <f t="shared" ref="O25" si="32">DEC2BIN(J25,8)</f>
+        <v>00001101</v>
+      </c>
+      <c r="P25" s="32"/>
       <c r="Q25" s="20" t="s">
         <v>4</v>
       </c>
@@ -2020,30 +2286,54 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="G26" s="29">
+        <v>10</v>
+      </c>
+      <c r="H26" s="19">
+        <v>7</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>14</v>
+      </c>
       <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="20"/>
+      <c r="L26" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M26" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N26" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O26" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>00001110</v>
+      </c>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="34" t="s">
-        <v>94</v>
+      <c r="E27" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="37">
+      <c r="G27" s="29">
         <v>10</v>
       </c>
       <c r="H27" s="19">
@@ -2053,26 +2343,26 @@
         <v>0</v>
       </c>
       <c r="J27" s="19">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M27" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N27" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O27" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00011100</v>
-      </c>
-      <c r="P27" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00010000</v>
+      </c>
+      <c r="P27" s="32"/>
       <c r="Q27" s="20" t="s">
         <v>4</v>
       </c>
@@ -2082,9 +2372,9 @@
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -2093,7 +2383,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
-      <c r="P28" s="23"/>
+      <c r="P28" s="32"/>
       <c r="Q28" s="20"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2101,11 +2391,11 @@
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="34" t="s">
-        <v>95</v>
+      <c r="E29" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F29" s="19"/>
-      <c r="G29" s="37">
+      <c r="G29" s="29">
         <v>10</v>
       </c>
       <c r="H29" s="19">
@@ -2115,26 +2405,26 @@
         <v>0</v>
       </c>
       <c r="J29" s="19">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M29" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N29" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O29" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00100000</v>
-      </c>
-      <c r="P29" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00010100</v>
+      </c>
+      <c r="P29" s="32"/>
       <c r="Q29" s="20" t="s">
         <v>4</v>
       </c>
@@ -2144,9 +2434,9 @@
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="34"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="37"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -2155,7 +2445,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
-      <c r="P30" s="23"/>
+      <c r="P30" s="32"/>
       <c r="Q30" s="20"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2163,11 +2453,11 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="34" t="s">
-        <v>96</v>
+      <c r="E31" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="F31" s="19"/>
-      <c r="G31" s="37">
+      <c r="G31" s="29">
         <v>10</v>
       </c>
       <c r="H31" s="19">
@@ -2177,26 +2467,26 @@
         <v>0</v>
       </c>
       <c r="J31" s="19">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M31" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N31" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O31" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00100100</v>
-      </c>
-      <c r="P31" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00011000</v>
+      </c>
+      <c r="P31" s="32"/>
       <c r="Q31" s="20" t="s">
         <v>4</v>
       </c>
@@ -2206,9 +2496,9 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="34"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="37"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -2217,7 +2507,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
-      <c r="P32" s="23"/>
+      <c r="P32" s="32"/>
       <c r="Q32" s="20"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2225,11 +2515,11 @@
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="34" t="s">
-        <v>97</v>
+      <c r="E33" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="F33" s="19"/>
-      <c r="G33" s="37">
+      <c r="G33" s="29">
         <v>10</v>
       </c>
       <c r="H33" s="19">
@@ -2239,26 +2529,26 @@
         <v>0</v>
       </c>
       <c r="J33" s="19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M33" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N33" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O33" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00101000</v>
-      </c>
-      <c r="P33" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00011100</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="Q33" s="20" t="s">
         <v>4</v>
       </c>
@@ -2268,54 +2558,30 @@
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="34" t="s">
-        <v>98</v>
-      </c>
+      <c r="E34" s="26"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="37">
-        <v>10</v>
-      </c>
-      <c r="H34" s="19">
-        <v>7</v>
-      </c>
-      <c r="I34" s="19">
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
-        <v>44</v>
-      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>00001010</v>
-      </c>
-      <c r="M34" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000111</v>
-      </c>
-      <c r="N34" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>00000000</v>
-      </c>
-      <c r="O34" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00101100</v>
-      </c>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="20"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="34" t="s">
-        <v>99</v>
+      <c r="E35" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="F35" s="19"/>
-      <c r="G35" s="37">
+      <c r="G35" s="29">
         <v>10</v>
       </c>
       <c r="H35" s="19">
@@ -2325,26 +2591,26 @@
         <v>0</v>
       </c>
       <c r="J35" s="19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M35" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N35" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O35" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00110000</v>
-      </c>
-      <c r="P35" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00100000</v>
+      </c>
+      <c r="P35" s="32"/>
       <c r="Q35" s="20" t="s">
         <v>4</v>
       </c>
@@ -2354,54 +2620,30 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="34" t="s">
-        <v>100</v>
-      </c>
+      <c r="E36" s="26"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="37">
-        <v>10</v>
-      </c>
-      <c r="H36" s="19">
-        <v>7</v>
-      </c>
-      <c r="I36" s="19">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
-        <v>52</v>
-      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>00001010</v>
-      </c>
-      <c r="M36" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000111</v>
-      </c>
-      <c r="N36" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>00000000</v>
-      </c>
-      <c r="O36" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00110100</v>
-      </c>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="20"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="34" t="s">
-        <v>101</v>
+      <c r="E37" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="37">
+      <c r="G37" s="29">
         <v>10</v>
       </c>
       <c r="H37" s="19">
@@ -2411,26 +2653,26 @@
         <v>0</v>
       </c>
       <c r="J37" s="19">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M37" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N37" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O37" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00111000</v>
-      </c>
-      <c r="P37" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00100100</v>
+      </c>
+      <c r="P37" s="32"/>
       <c r="Q37" s="20" t="s">
         <v>4</v>
       </c>
@@ -2440,54 +2682,30 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="34" t="s">
-        <v>102</v>
-      </c>
+      <c r="E38" s="26"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="37">
-        <v>10</v>
-      </c>
-      <c r="H38" s="19">
-        <v>7</v>
-      </c>
-      <c r="I38" s="19">
-        <v>0</v>
-      </c>
-      <c r="J38" s="19">
-        <v>60</v>
-      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="19"/>
-      <c r="L38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>00001010</v>
-      </c>
-      <c r="M38" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>00000111</v>
-      </c>
-      <c r="N38" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>00000000</v>
-      </c>
-      <c r="O38" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>00111100</v>
-      </c>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="20"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="34" t="s">
-        <v>103</v>
+      <c r="E39" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="37">
+      <c r="G39" s="29">
         <v>10</v>
       </c>
       <c r="H39" s="19">
@@ -2497,26 +2715,26 @@
         <v>0</v>
       </c>
       <c r="J39" s="19">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="K39" s="19"/>
       <c r="L39" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M39" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N39" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O39" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>01000000</v>
-      </c>
-      <c r="P39" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00101000</v>
+      </c>
+      <c r="P39" s="32"/>
       <c r="Q39" s="20" t="s">
         <v>4</v>
       </c>
@@ -2526,11 +2744,11 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="34" t="s">
-        <v>104</v>
+      <c r="E40" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="F40" s="19"/>
-      <c r="G40" s="37">
+      <c r="G40" s="29">
         <v>10</v>
       </c>
       <c r="H40" s="19">
@@ -2540,26 +2758,26 @@
         <v>0</v>
       </c>
       <c r="J40" s="19">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M40" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N40" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O40" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>01000100</v>
-      </c>
-      <c r="P40" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00101100</v>
+      </c>
+      <c r="P40" s="32"/>
       <c r="Q40" s="20" t="s">
         <v>4</v>
       </c>
@@ -2569,11 +2787,11 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="34" t="s">
-        <v>105</v>
+      <c r="E41" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="F41" s="19"/>
-      <c r="G41" s="37">
+      <c r="G41" s="29">
         <v>10</v>
       </c>
       <c r="H41" s="19">
@@ -2583,26 +2801,26 @@
         <v>0</v>
       </c>
       <c r="J41" s="19">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M41" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N41" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O41" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>01001000</v>
-      </c>
-      <c r="P41" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00110000</v>
+      </c>
+      <c r="P41" s="32"/>
       <c r="Q41" s="20" t="s">
         <v>4</v>
       </c>
@@ -2612,11 +2830,11 @@
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="34" t="s">
-        <v>106</v>
+      <c r="E42" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="F42" s="19"/>
-      <c r="G42" s="37">
+      <c r="G42" s="29">
         <v>10</v>
       </c>
       <c r="H42" s="19">
@@ -2626,26 +2844,26 @@
         <v>0</v>
       </c>
       <c r="J42" s="19">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M42" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N42" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O42" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>01001100</v>
-      </c>
-      <c r="P42" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00110100</v>
+      </c>
+      <c r="P42" s="32"/>
       <c r="Q42" s="20" t="s">
         <v>4</v>
       </c>
@@ -2655,11 +2873,11 @@
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="34" t="s">
-        <v>107</v>
+      <c r="E43" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="F43" s="19"/>
-      <c r="G43" s="37">
+      <c r="G43" s="29">
         <v>10</v>
       </c>
       <c r="H43" s="19">
@@ -2669,224 +2887,487 @@
         <v>0</v>
       </c>
       <c r="J43" s="19">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
       <c r="M43" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
       <c r="N43" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
       <c r="O43" s="19" t="str">
-        <f t="shared" si="12"/>
-        <v>01010000</v>
-      </c>
-      <c r="P43" s="23"/>
+        <f t="shared" si="28"/>
+        <v>00111000</v>
+      </c>
+      <c r="P43" s="32"/>
       <c r="Q43" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="35" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="29">
+        <v>10</v>
+      </c>
+      <c r="H44" s="19">
+        <v>7</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="19">
+        <v>60</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M44" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N44" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O44" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>00111100</v>
+      </c>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="29">
+        <v>10</v>
+      </c>
+      <c r="H45" s="19">
+        <v>7</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19">
+        <v>64</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M45" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N45" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O45" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>01000000</v>
+      </c>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="29">
+        <v>10</v>
+      </c>
+      <c r="H46" s="19">
+        <v>7</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19">
+        <v>68</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M46" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N46" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O46" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>01000100</v>
+      </c>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="29">
+        <v>10</v>
+      </c>
+      <c r="H47" s="19">
+        <v>7</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19">
+        <v>72</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M47" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N47" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O47" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>01001000</v>
+      </c>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="29">
+        <v>10</v>
+      </c>
+      <c r="H48" s="19">
+        <v>7</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19">
+        <v>76</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M48" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N48" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O48" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>01001100</v>
+      </c>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="29">
+        <v>10</v>
+      </c>
+      <c r="H49" s="19">
+        <v>7</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19">
+        <v>80</v>
+      </c>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19" t="str">
+        <f t="shared" si="16"/>
+        <v>00001010</v>
+      </c>
+      <c r="M49" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>00000111</v>
+      </c>
+      <c r="N49" s="19" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="O49" s="19" t="str">
+        <f t="shared" si="28"/>
+        <v>01010000</v>
+      </c>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="38">
+      <c r="F50" s="21"/>
+      <c r="G50" s="30">
         <v>10</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H50" s="21">
         <v>7</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I50" s="21">
         <v>1</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J50" s="21">
         <v>0</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21" t="str">
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
-      <c r="M44" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M50" s="21" t="str">
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
-      <c r="N44" s="21" t="str">
-        <f t="shared" si="11"/>
+      <c r="N50" s="21" t="str">
+        <f t="shared" si="27"/>
         <v>00000001</v>
       </c>
-      <c r="O44" s="21" t="str">
-        <f t="shared" si="12"/>
+      <c r="O50" s="21" t="str">
+        <f t="shared" si="28"/>
         <v>00000000</v>
       </c>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="21" t="s">
+      <c r="P50" s="32"/>
+      <c r="Q50" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="35" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="38">
+      <c r="F51" s="21"/>
+      <c r="G51" s="30">
         <v>10</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H51" s="21">
         <v>7</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I51" s="21">
         <v>2</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J51" s="21">
         <v>0</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21" t="str">
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
-      <c r="M45" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M51" s="21" t="str">
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
-      <c r="N45" s="21" t="str">
-        <f t="shared" si="11"/>
+      <c r="N51" s="21" t="str">
+        <f t="shared" si="27"/>
         <v>00000010</v>
       </c>
-      <c r="O45" s="21" t="str">
-        <f t="shared" si="12"/>
+      <c r="O51" s="21" t="str">
+        <f t="shared" si="28"/>
         <v>00000000</v>
       </c>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="21" t="s">
+      <c r="P51" s="32"/>
+      <c r="Q51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="35" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="38">
+      <c r="F52" s="21"/>
+      <c r="G52" s="30">
         <v>10</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H52" s="21">
         <v>7</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I52" s="21">
         <v>3</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J52" s="21">
         <v>0</v>
       </c>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21" t="str">
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
-      <c r="M46" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M52" s="21" t="str">
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
-      <c r="N46" s="21" t="str">
-        <f t="shared" si="11"/>
+      <c r="N52" s="21" t="str">
+        <f t="shared" si="27"/>
         <v>00000011</v>
       </c>
-      <c r="O46" s="21" t="str">
-        <f t="shared" si="12"/>
+      <c r="O52" s="21" t="str">
+        <f t="shared" si="28"/>
         <v>00000000</v>
       </c>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="21" t="s">
+      <c r="P52" s="32"/>
+      <c r="Q52" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="35" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="38">
+      <c r="F53" s="21"/>
+      <c r="G53" s="30">
         <v>10</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H53" s="21">
         <v>7</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I53" s="21">
         <v>4</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J53" s="21">
         <v>0</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21" t="str">
-        <f t="shared" si="0"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21" t="str">
+        <f t="shared" si="16"/>
         <v>00001010</v>
       </c>
-      <c r="M47" s="21" t="str">
-        <f t="shared" si="1"/>
+      <c r="M53" s="21" t="str">
+        <f t="shared" si="17"/>
         <v>00000111</v>
       </c>
-      <c r="N47" s="21" t="str">
-        <f t="shared" si="11"/>
+      <c r="N53" s="21" t="str">
+        <f t="shared" si="27"/>
         <v>00000100</v>
       </c>
-      <c r="O47" s="21" t="str">
-        <f t="shared" si="12"/>
+      <c r="O53" s="21" t="str">
+        <f t="shared" si="28"/>
         <v>00000000</v>
       </c>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="21" t="s">
+      <c r="P53" s="33"/>
+      <c r="Q53" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L48">
-        <v>255</v>
-      </c>
-      <c r="M48">
-        <v>255</v>
-      </c>
-      <c r="N48">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>255</v>
+      </c>
+      <c r="M54">
+        <v>255</v>
+      </c>
+      <c r="N54">
         <v>240</v>
       </c>
-      <c r="O48">
+      <c r="O54">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="P2:P47"/>
+  <mergeCells count="4">
+    <mergeCell ref="P2:P53"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="O14 Q12:Q13 Q2:Q3 Q4:Q11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4726,322 +5207,322 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5069,38 +5550,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
@@ -5108,7 +5589,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -5116,7 +5597,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
